--- a/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at ConstantQ_historical.xlsx
+++ b/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at ConstantQ_historical.xlsx
@@ -1,477 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross Domestic Product by Kind" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross Domestic Product by Kind" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>AgricultureRM</t>
-  </si>
-  <si>
-    <t>Mining and QuarryingRM</t>
-  </si>
-  <si>
-    <t>ManufacturingRM</t>
-  </si>
-  <si>
-    <t>ConstructionRM</t>
-  </si>
-  <si>
-    <t>Electricity and GasRM</t>
-  </si>
-  <si>
-    <t>WaterRM</t>
-  </si>
-  <si>
-    <t>Wholesale TradeRM</t>
-  </si>
-  <si>
-    <t>Retail TradeRM</t>
-  </si>
-  <si>
-    <t>AccomodationRM</t>
-  </si>
-  <si>
-    <t>Food and BeverageRM</t>
-  </si>
-  <si>
-    <t>Transport and StorageRM</t>
-  </si>
-  <si>
-    <t>Infor &amp; CommunicationRM</t>
-  </si>
-  <si>
-    <t>FinanceRM</t>
-  </si>
-  <si>
-    <t>InsuranceRM</t>
-  </si>
-  <si>
-    <t>Government ServicesRM</t>
-  </si>
-  <si>
-    <t>Other ServicesRM</t>
-  </si>
-  <si>
-    <t>Import DutiesRM</t>
-  </si>
-  <si>
-    <t>GDP at Purchasers' ValueRM</t>
-  </si>
-  <si>
-    <t>ServicesRM</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -486,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -505,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -802,5943 +353,6793 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:DV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:126">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:126">
-      <c r="A2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AgricultureRM</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>13651.7659436492</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>13911.665783877</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>17009.3909083549</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>16159.448186473</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>14498.1965044197</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>16268.3251472789</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>17919.040350204</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>16215.6427474316</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>15200.628505888</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>15478.0891453641</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>16823.2464283338</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>15358.6757054299</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>13528.8403426036</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>15049.6056243633</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>16851.343708813</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>16240.2278667996</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>14498.1965044197</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>14449.0262635809</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>15460.528346116</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>15702.8673870957</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>13992.4454642036</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>15362.1878665413</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>17107.7313879296</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>16370.177787965</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>14168.0534629935</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>15962.7672273236</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>16658.1749086722</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>16465.0061085312</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>14234.7845030804</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>15214.6771461277</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>16594.9560275937</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>15464.0405051244</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>13409.4269026694</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>15846.8659463979</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>16426.3723468207</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>16117.3022678569</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>14150.4926637454</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>15651.9715999787</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>17487.8134926002</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>17159.7592712384</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>15666.6919817066</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>15818.1016223351</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>16621.4138823367</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>16232.3752223883</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>14762.4399612859</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>15818.1016223351</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>17838.9997423915</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>17761.1920104018</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>15675.1036284081</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>17693.8988367892</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>18987.1895171581</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>17820.073537313</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>16652.9575574677</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>18230.1413140154</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>19712.6940451701</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>18856.8089932836</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>17363.7916635128</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>18809.8520208242</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>20098.1244979677</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>18821.5981370828</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>18033.8595010803</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>19705.5053503139</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>21789.2853261202</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>19946.1598494996</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>18495.0719900071</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>19088.1932183342</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>22053.7560208708</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>20933.216698799</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>19807.3135118466</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>20336.2324157469</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>22655.798533329</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>20860.6622515161</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>18692.983365233</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>20385.0494802255</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>22448.3000591787</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>22180.7797247926</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>20214.0372554018</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>20663.9966355113</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>23322.3773409858</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>21531.8493249638</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>20027.8471670806</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>22575.548208942</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>25631.1344361683</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>23365.8216949274</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>20518.147732993</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>21310.4899977375</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>25727.3326484675</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>24923.6121005478</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>21910.4358378835</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>21352.8999622996</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>26072.8187012413</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>24980.5035164237</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>22478.3156072631</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>22775.1853591974</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>26944.8089482121</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>24049.5530748179</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>21692.084</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>24001.201</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>27685.145</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>24160.513</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>21208.139</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>22617.464</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>26403.735</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" t="n">
         <v>23748.107</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" t="n">
         <v>22608.062</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" t="n">
         <v>23644.227</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" t="n">
         <v>27266.302</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" t="n">
         <v>25990.187</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" t="n">
         <v>23298.055</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" t="n">
         <v>23292.322</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" t="n">
         <v>27089.068</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" t="n">
         <v>25957.634</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" t="n">
         <v>24706.974</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" t="n">
         <v>24265.644</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" t="n">
         <v>28082.012</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" t="n">
         <v>24518.698</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" t="n">
         <v>22533.07</v>
       </c>
-      <c r="DO2">
+      <c r="DO2" t="n">
         <v>24421.937</v>
       </c>
-      <c r="DP2">
+      <c r="DP2" t="n">
         <v>27938.163</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ2" t="n">
         <v>24212.807</v>
       </c>
-      <c r="DR2">
+      <c r="DR2" t="n">
         <v>22562.735</v>
       </c>
-      <c r="DS2">
+      <c r="DS2" t="n">
         <v>24052.974</v>
       </c>
-      <c r="DT2">
+      <c r="DT2" t="n">
         <v>27388.598</v>
       </c>
-      <c r="DU2">
+      <c r="DU2" t="n">
         <v>24893.886</v>
       </c>
-      <c r="DV2">
+      <c r="DV2" t="n">
         <v>22603.759</v>
       </c>
     </row>
-    <row r="3" spans="1:126">
-      <c r="A3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mining and QuarryingRM</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>14948.7570935164</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>14719.888128829</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>16424.3596254683</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>16737.5487349097</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>16592.9999149764</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>16297.8794095802</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>16370.153818304</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>16448.4510975286</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>16490.6111686628</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>15310.1291421069</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>15520.929502749</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>15767.8670714817</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>15876.2786858102</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>16032.873239288</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>17195.2866642844</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>17737.3447384131</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>19188.8558007904</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>19761.0282125089</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>21212.5392748861</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>22001.5349152617</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>22278.5868190983</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>20790.9385511163</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>20628.3211296233</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>20863.2129623257</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>21893.1233009332</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>21037.876117363</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>20796.9614191313</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>22435.1813750618</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>22079.8321920008</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>21080.0361909831</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>21013.7846477885</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>22290.6325551284</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>22670.0732052786</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>21923.2376385228</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>23350.6572313257</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>24464.8877171726</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>24061.3555949622</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>23007.4284490672</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>22704.1758268992</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>23730.7605232546</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>23544.3347309382</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>22582.3776425859</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>22485.4362305815</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>23310.6810712352</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>23974.3568918813</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>22202.0690262605</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>24543.5769777539</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>25254.4806657868</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>25035.7410694689</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>25140.1395131661</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>24834.4012137673</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>26800.571903397</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>26601.7177249262</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>25570.1616741091</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>25689.4741811916</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>28093.1240634569</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>27156.2595834515</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>25034.2807233212</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>26170.1841273191</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>27153.852558003</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>26810.2163912617</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>24604.3573027187</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>25832.8832088941</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>27044.8036192488</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>26528.7836281074</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>26087.9960966366</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>26007.4437727656</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>27837.9310785278</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>26976.8749883705</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>25252.0500496047</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>25758.8075485855</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>25894.7800947524</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>24980.2056908155</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>23833.0359824275</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>23957.4102492807</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>24367.1137165621</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>25391.405491075</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>24130.7857246999</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>23431.9990620729</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>23877.3677220497</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>24592.3300018672</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>22128.2443165233</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>22227.4547686247</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>23116.0353396196</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>24644.0919768766</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>22619.9830791127</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>22036.5824857775</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>24250.4852919092</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>24358.3227398455</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>23716.6899246246</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>22478.7160223162</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>24116.7668564682</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>24338.9119992169</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>24266.6609090996</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>22871.2443328042</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>26339.2966584348</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>26879.46</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>25728.633</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>24260.053</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>26191.205</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>26585.733</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>26313.05</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>24927.097</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" t="n">
         <v>27541.779</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>26844.897</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" t="n">
         <v>26187.197</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" t="n">
         <v>25500.285</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" t="n">
         <v>27305.418</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" t="n">
         <v>26188.912</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" t="n">
         <v>25853.483</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" t="n">
         <v>24237.857</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" t="n">
         <v>27276.753</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" t="n">
         <v>26215.844</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" t="n">
         <v>26483.427</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" t="n">
         <v>23566.512</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" t="n">
         <v>26621.589</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" t="n">
         <v>25460.245</v>
       </c>
-      <c r="DO3">
+      <c r="DO3" t="n">
         <v>21386.654</v>
       </c>
-      <c r="DP3">
+      <c r="DP3" t="n">
         <v>22009.392</v>
       </c>
-      <c r="DQ3">
+      <c r="DQ3" t="n">
         <v>24023.127</v>
       </c>
-      <c r="DR3">
+      <c r="DR3" t="n">
         <v>24336.636</v>
       </c>
-      <c r="DS3">
+      <c r="DS3" t="n">
         <v>23647.74</v>
       </c>
-      <c r="DT3">
+      <c r="DT3" t="n">
         <v>21295.822</v>
       </c>
-      <c r="DU3">
+      <c r="DU3" t="n">
         <v>23870.057</v>
       </c>
-      <c r="DV3">
+      <c r="DV3" t="n">
         <v>24066.494</v>
       </c>
     </row>
-    <row r="4" spans="1:126">
-      <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ManufacturingRM</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>14901.1179185064</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>14692.5320774191</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>16754.9779072422</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>16882.6835282976</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>15839.7542564935</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>15971.716738221</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>17659.5594129476</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>18189.5377502834</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>17282.8278208787</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>19143.0730807119</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>20611.6877560347</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>20483.9821349792</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>19262.2649936972</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>21484.3428531579</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>22984.8839370629</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>22608.1523449938</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>21884.4871457389</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>23802.1999383656</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>24972.8348312253</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>25490.0425998188</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>25896.5721767708</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>28314.4653218501</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>29557.4667399449</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>29861.831806779</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>28812.5172638771</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>30894.1189335401</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>32747.9789090022</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>32671.3555363689</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>27369.4437127654</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>27914.3210425428</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>26671.319624448</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>26377.5966893835</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>27122.5461654512</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>30287.5172235711</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>31279.3642336795</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>32292.4955206007</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>33690.8721076612</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>36141.1656192342</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>38801.180893986</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>37372.9491396781</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>33736.0021073326</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>34998.3147452015</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>35977.901208658</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>35060.7003329826</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>33661.6703431679</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>36064.1791492063</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>38878.1673640138</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>36928.2859076213</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>36991.9988483339</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>39669.2697111955</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>41155.9049944899</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>41048.3894070374</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>41490.3979332312</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>43719.0235052415</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>45380.8693754957</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>43460.1896835964</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>43481.8053096987</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>45046.1555188924</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>47168.8794549539</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>46612.2303058855</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>47291.6079593531</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>48865.7601522743</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>50781.2906000281</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>48914.4690135997</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>48323.0370910251</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>49913.8625009028</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>52184.4722796608</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>51518.1943207801</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>51361.9775424373</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>52444.8589765485</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>52820.5542836581</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>46856.4228669826</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>42344.3874579837</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>44994.6399231543</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>48430.1072895812</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>49456.3649047117</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>49381.7637506036</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>52141.1049142209</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>52499.6147103522</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>53216.6343026149</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>52644.9565195947</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>53986.4075886025</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>55731.585905506</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>56146.0792133455</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>54933.8208636642</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>56843.7198977091</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>57278.668719442</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>59098.1328499583</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>55253.5728439976</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>58962.4804946653</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>59670.8872389729</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>62052.3396985598</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>59036.7663082782</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>63216.1507784936</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>62755.3634128954</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>65332.7581634611</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>62333.5</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>65695.179</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>65850.84600000001</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>68499.886</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>65146.107</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>68160.003</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>68629.97500000001</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" t="n">
         <v>71962.45699999999</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" t="n">
         <v>69022.235</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" t="n">
         <v>72241.52</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" t="n">
         <v>73441.717</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" t="n">
         <v>75758.213</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" t="n">
         <v>72642.61</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" t="n">
         <v>75745.353</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" t="n">
         <v>77130.98699999999</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" t="n">
         <v>79323.70699999999</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" t="n">
         <v>75626.5</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" t="n">
         <v>79005.41099999999</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" t="n">
         <v>79921.97500000001</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" t="n">
         <v>81729.087</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" t="n">
         <v>76661.19500000001</v>
       </c>
-      <c r="DO4">
+      <c r="DO4" t="n">
         <v>64490.324</v>
       </c>
-      <c r="DP4">
+      <c r="DP4" t="n">
         <v>82509.09600000001</v>
       </c>
-      <c r="DQ4">
+      <c r="DQ4" t="n">
         <v>84185.913</v>
       </c>
-      <c r="DR4">
+      <c r="DR4" t="n">
         <v>81760.86900000001</v>
       </c>
-      <c r="DS4">
+      <c r="DS4" t="n">
         <v>81679.175</v>
       </c>
-      <c r="DT4">
+      <c r="DT4" t="n">
         <v>81890.226</v>
       </c>
-      <c r="DU4">
+      <c r="DU4" t="n">
         <v>91888.402</v>
       </c>
-      <c r="DV4">
+      <c r="DV4" t="n">
         <v>87191.16</v>
       </c>
     </row>
-    <row r="5" spans="1:126">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ConstructionRM</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>3436.5944013374</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>3426.35628492271</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3938.26210395172</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3989.4526860252</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>3781.27765396553</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>4026.99244621242</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>4262.46912375044</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>4306.8342948808</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>4204.45313073384</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>4487.70768487378</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>4801.67658655198</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>4651.5175458031</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>4822.15281938137</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>5200.96312672516</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>5504.69391198866</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>5361.3602821829</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>5890.32963027558</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>6296.44157968605</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>6572.87072288287</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>6531.91825722408</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>6603.58507212695</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>7310.01510303521</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>7763.9049290476</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>7705.88893603099</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>7757.07951810447</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>8101.76276902676</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>8330.41403562165</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>8309.93780279225</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>6750.33140569844</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>6364.69568911736</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>5798.1865825433</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>5798.1865825433</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>5535.40826123276</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>5992.71079271671</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>6064.37760761959</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>6043.90137479019</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>5576.36072689155</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>6055.69916808351</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>6072.75747559923</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>6125.63822889799</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>5670.18141822805</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>6316.69127307415</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>6296.22130405528</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>6328.63208833515</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>5854.4111393979</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>6507.7443172503</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>6449.74607169682</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>6369.57202637291</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>5912.40938495138</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>6599.85917783524</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>6606.68250084153</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>6521.39096326289</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>6026.70004530677</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>6548.68425528805</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>6468.51020996413</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>6378.10118013076</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>5876.65531427825</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>6433.04068322065</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>6415.91870093023</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>6374.23792111211</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>5788.65408652279</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>6400.83377476857</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>6383.50727048218</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>6395.15877194461</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>6168.43875224943</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>6887.55062051242</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>7048.97435582638</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>6995.86356365408</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>6574.12360616297</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>7126.93332810446</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>7489.23758042895</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>7096.11432668614</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>6668.23535208205</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>7452.09194990801</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>8119.07132141796</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>7790.25672471563</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>7661.81823318391</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>8215.35615318652</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>8808.00917246127</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>8755.855706765091</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>8051.78391986669</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>8399.078589161691</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>9142.265475332229</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>9400.66219173601</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>9325.9879113074</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>10163.9992805619</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>10794.5820930702</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>11058.9053396668</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>10551.5943551676</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>11144.2473744423</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>11890.9901787285</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>12155.313425325</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>12586.764823357</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>12265.5468869101</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>13044.2929542371</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>13207.865187557</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>13728.381</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>12926.846</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>14331.755</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>14394.987</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>14824.582</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>14083.359</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>15478.484</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" t="n">
         <v>15121.484</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" t="n">
         <v>15831.854</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" t="n">
         <v>15253.009</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" t="n">
         <v>16430.608</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" t="n">
         <v>16006.212</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" t="n">
         <v>16604.257</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" t="n">
         <v>15984.903</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" t="n">
         <v>17205.886</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" t="n">
         <v>16399.226</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" t="n">
         <v>16704.116</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" t="n">
         <v>16160.726</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" t="n">
         <v>16967.324</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" t="n">
         <v>16620.404</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" t="n">
         <v>15376.65</v>
       </c>
-      <c r="DO5">
+      <c r="DO5" t="n">
         <v>9003.409</v>
       </c>
-      <c r="DP5">
+      <c r="DP5" t="n">
         <v>14890.335</v>
       </c>
-      <c r="DQ5">
+      <c r="DQ5" t="n">
         <v>14345.798</v>
       </c>
-      <c r="DR5">
+      <c r="DR5" t="n">
         <v>13769.801</v>
       </c>
-      <c r="DS5">
+      <c r="DS5" t="n">
         <v>12627.394</v>
       </c>
-      <c r="DT5">
+      <c r="DT5" t="n">
         <v>11815.987</v>
       </c>
-      <c r="DU5">
+      <c r="DU5" t="n">
         <v>12588.452</v>
       </c>
-      <c r="DV5">
+      <c r="DV5" t="n">
         <v>12921.737</v>
       </c>
     </row>
-    <row r="6" spans="1:126">
-      <c r="A6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Electricity and GasRM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="n">
         <v>4142.26740591161</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>4383.76468801949</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>4445.61155294957</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>4223.25734808193</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>4329.2805451049</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>4529.54658392609</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>4685.63629065436</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>4514.82113989512</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>4539.85439474777</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>4763.6811440185</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>4847.61617499502</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>4734.23025595656</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>4769.57132163089</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>4978.67262687064</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>4975.72753806445</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>4625.26197012739</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>4383.76468801949</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>4968.36481604896</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>5127.39961158343</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>5140.6525112113</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>5156.37610336986</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>5403.85346330437</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>5284.29918314277</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>5317.77438158802</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>5275.93038353146</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>5570.033912729</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>5586.77151195163</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>5570.033912729</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>5579.59825514193</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>5854.57309951361</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>5842.61767149745</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>5834.24887188614</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>5830.66224348129</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>6114.00588746429</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>6080.53068901904</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>6104.44154505136</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>6023.14463454147</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>6299.31502171477</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>6361.4832473988</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>6308.8793641277</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>6204.769</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>6541.008</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>6542.923</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>6485.065</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>6616.468</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>6870.375</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>6879.717</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" t="n">
         <v>6708.693</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" t="n">
         <v>6710.138</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" t="n">
         <v>6963.67</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" t="n">
         <v>7026.84</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" t="n">
         <v>6970.135</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" t="n">
         <v>6981.588</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" t="n">
         <v>7287.358</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" t="n">
         <v>7389.196</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" t="n">
         <v>7273.371</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" t="n">
         <v>7431.912</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" t="n">
         <v>7724.507</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" t="n">
         <v>7787.306</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" t="n">
         <v>7652.097</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" t="n">
         <v>7784.255</v>
       </c>
-      <c r="DO6">
+      <c r="DO6" t="n">
         <v>6725.524</v>
       </c>
-      <c r="DP6">
+      <c r="DP6" t="n">
         <v>7473.333</v>
       </c>
-      <c r="DQ6">
+      <c r="DQ6" t="n">
         <v>7576.648</v>
       </c>
-      <c r="DR6">
+      <c r="DR6" t="n">
         <v>7736.024</v>
       </c>
-      <c r="DS6">
+      <c r="DS6" t="n">
         <v>7194.248</v>
       </c>
-      <c r="DT6">
+      <c r="DT6" t="n">
         <v>7190.499</v>
       </c>
-      <c r="DU6">
+      <c r="DU6" t="n">
         <v>7908.479</v>
       </c>
-      <c r="DV6">
+      <c r="DV6" t="n">
         <v>8020.133</v>
       </c>
     </row>
-    <row r="7" spans="1:126">
-      <c r="A7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BF7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>WaterRM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="n">
         <v>900.574652276434</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>902.088223120597</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>923.278214938866</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>903.6017939647591</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>912.683219029731</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>927.818927471352</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>953.549631822107</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>936.900352536324</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>961.117486042918</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>973.226052796215</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>997.443186302808</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>988.361761237835</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>1048.90459500432</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>1054.95887838097</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>1061.01316175761</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>1057.98602006929</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>1070.09458682259</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>1098.85243286167</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>1126.09670805659</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>1126.09670805659</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>1144.84908671365</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>1178.7078397403</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>1199.86956038196</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>1207.27616260654</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>1181.88209783655</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>1228.4378832482</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>1240.07682960111</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>1263.35472230693</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>1237.96065753694</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>1282.40027088442</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>1286.63261501276</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>1312.02667978274</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>1290.86495914109</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>1335.30457248857</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>1340.59500264898</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>1378.68609980396</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>1330.01414232815</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>1371.27949757938</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>1434.76465950436</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>1464.39106840268</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>1426.647</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>1443.339</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>1513.73</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>1552.407</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>1536.279</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>1537.761</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>1613.93</v>
       </c>
-      <c r="DA7">
+      <c r="DA7" t="n">
         <v>1648.83</v>
       </c>
-      <c r="DB7">
+      <c r="DB7" t="n">
         <v>1629.723</v>
       </c>
-      <c r="DC7">
+      <c r="DC7" t="n">
         <v>1628.645</v>
       </c>
-      <c r="DD7">
+      <c r="DD7" t="n">
         <v>1717.049</v>
       </c>
-      <c r="DE7">
+      <c r="DE7" t="n">
         <v>1749.845</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" t="n">
         <v>1727.848</v>
       </c>
-      <c r="DG7">
+      <c r="DG7" t="n">
         <v>1736.472</v>
       </c>
-      <c r="DH7">
+      <c r="DH7" t="n">
         <v>1828.137</v>
       </c>
-      <c r="DI7">
+      <c r="DI7" t="n">
         <v>1885.028</v>
       </c>
-      <c r="DJ7">
+      <c r="DJ7" t="n">
         <v>1896.849</v>
       </c>
-      <c r="DK7">
+      <c r="DK7" t="n">
         <v>1885.549</v>
       </c>
-      <c r="DL7">
+      <c r="DL7" t="n">
         <v>1944.801</v>
       </c>
-      <c r="DM7">
+      <c r="DM7" t="n">
         <v>2003.447</v>
       </c>
-      <c r="DN7">
+      <c r="DN7" t="n">
         <v>2006.889</v>
       </c>
-      <c r="DO7">
+      <c r="DO7" t="n">
         <v>2053.024</v>
       </c>
-      <c r="DP7">
+      <c r="DP7" t="n">
         <v>2101.716</v>
       </c>
-      <c r="DQ7">
+      <c r="DQ7" t="n">
         <v>2135.877</v>
       </c>
-      <c r="DR7">
+      <c r="DR7" t="n">
         <v>2155.124</v>
       </c>
-      <c r="DS7">
+      <c r="DS7" t="n">
         <v>2162.86</v>
       </c>
-      <c r="DT7">
+      <c r="DT7" t="n">
         <v>2220.153</v>
       </c>
-      <c r="DU7">
+      <c r="DU7" t="n">
         <v>2269.243</v>
       </c>
-      <c r="DV7">
+      <c r="DV7" t="n">
         <v>2207.333</v>
       </c>
     </row>
-    <row r="8" spans="1:126">
-      <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale TradeRM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="n">
         <v>9387.69902740999</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>10212.9278338766</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>10850.6046388736</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>11221.3805187021</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>10150.8914026213</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>10852.0473465772</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>11788.3646462221</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>12252.9165267855</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>11698.9167685981</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>12175.0103107904</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>13479.2180748565</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>13518.1711828541</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>12991.5828710354</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>13542.6972138155</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>14287.1343888798</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>14243.8531577714</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>12043.7239097616</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>13435.9368437482</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>14686.7644227807</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>14556.9207294554</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>13027.856860485</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>14314.4419802279</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>15285.2934354751</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>15857.6346100666</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>13776.3939751883</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>15681.4386699547</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>16958.5636049936</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>17024.7848979216</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>14669.1989066276</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>16312.9059989462</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>17426.8427478412</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>17093.3712370255</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>15455.5767601469</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>17047.2528365936</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>18220.3157398886</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>18474.5582038084</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>16703.1386179859</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>18530.1367889443</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>19730.3977232633</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>20209.3195739029</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>18372.409</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>20110.701</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>21642.118</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>22057.378</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>19874.386</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>21873.103</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>23625.036</v>
       </c>
-      <c r="DA8">
+      <c r="DA8" t="n">
         <v>23634.126</v>
       </c>
-      <c r="DB8">
+      <c r="DB8" t="n">
         <v>21013.175</v>
       </c>
-      <c r="DC8">
+      <c r="DC8" t="n">
         <v>23192.438</v>
       </c>
-      <c r="DD8">
+      <c r="DD8" t="n">
         <v>25285.909</v>
       </c>
-      <c r="DE8">
+      <c r="DE8" t="n">
         <v>25414.923</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" t="n">
         <v>22684.481</v>
       </c>
-      <c r="DG8">
+      <c r="DG8" t="n">
         <v>24913.783</v>
       </c>
-      <c r="DH8">
+      <c r="DH8" t="n">
         <v>27141.51</v>
       </c>
-      <c r="DI8">
+      <c r="DI8" t="n">
         <v>27186.887</v>
       </c>
-      <c r="DJ8">
+      <c r="DJ8" t="n">
         <v>23868.814</v>
       </c>
-      <c r="DK8">
+      <c r="DK8" t="n">
         <v>26141.701</v>
       </c>
-      <c r="DL8">
+      <c r="DL8" t="n">
         <v>28848.874</v>
       </c>
-      <c r="DM8">
+      <c r="DM8" t="n">
         <v>28830.42</v>
       </c>
-      <c r="DN8">
+      <c r="DN8" t="n">
         <v>24656.642</v>
       </c>
-      <c r="DO8">
+      <c r="DO8" t="n">
         <v>20812.634</v>
       </c>
-      <c r="DP8">
+      <c r="DP8" t="n">
         <v>27643.658</v>
       </c>
-      <c r="DQ8">
+      <c r="DQ8" t="n">
         <v>28608.281</v>
       </c>
-      <c r="DR8">
+      <c r="DR8" t="n">
         <v>24743.453</v>
       </c>
-      <c r="DS8">
+      <c r="DS8" t="n">
         <v>24806.4</v>
       </c>
-      <c r="DT8">
+      <c r="DT8" t="n">
         <v>26760.981</v>
       </c>
-      <c r="DU8">
+      <c r="DU8" t="n">
         <v>28613.972</v>
       </c>
-      <c r="DV8">
+      <c r="DV8" t="n">
         <v>25055.115</v>
       </c>
     </row>
-    <row r="9" spans="1:126">
-      <c r="A9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BF9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Retail TradeRM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="n">
         <v>6573.52597456355</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>6823.47501019661</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>7490.45131383776</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>8308.46633954595</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>7522.53033445378</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>7998.36914025788</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>8709.454097246051</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>10080.8322285804</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>9367.07401987421</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>10043.4067045284</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>10920.2332680326</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>12093.7907722349</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>11175.5288071016</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>11452.2103599147</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>11997.5537103868</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>13100.2700440621</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>11676.7635042267</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>11962.8014380528</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>12806.212355082</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>14116.1056969023</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>12927.600185909</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>13266.2000616628</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>13962.4758625086</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>15284.6845322654</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>13929.0927761667</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>14012.5504920215</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>14872.1649653259</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>16304.0609187776</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>15002.1205514427</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>15045.0416624537</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>15650.7062289429</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>16934.7628000232</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>16010.7666602022</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>16145.4912586535</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>16844.1515656666</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>18663.5297713013</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>17673.9597118801</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>17753.8406684839</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>18440.5784446606</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>20528.2135941143</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>19643.835</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>18596.037</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>18929.781</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>21385.487</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>20730.289</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>19907.468</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>20377.919</v>
       </c>
-      <c r="DA9">
+      <c r="DA9" t="n">
         <v>23087.342</v>
       </c>
-      <c r="DB9">
+      <c r="DB9" t="n">
         <v>22380.494</v>
       </c>
-      <c r="DC9">
+      <c r="DC9" t="n">
         <v>22191.178</v>
       </c>
-      <c r="DD9">
+      <c r="DD9" t="n">
         <v>22488.825</v>
       </c>
-      <c r="DE9">
+      <c r="DE9" t="n">
         <v>25016.754</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" t="n">
         <v>24069.153</v>
       </c>
-      <c r="DG9">
+      <c r="DG9" t="n">
         <v>24035.13</v>
       </c>
-      <c r="DH9">
+      <c r="DH9" t="n">
         <v>25310.796</v>
       </c>
-      <c r="DI9">
+      <c r="DI9" t="n">
         <v>28055.839</v>
       </c>
-      <c r="DJ9">
+      <c r="DJ9" t="n">
         <v>26408.301</v>
       </c>
-      <c r="DK9">
+      <c r="DK9" t="n">
         <v>26282.228</v>
       </c>
-      <c r="DL9">
+      <c r="DL9" t="n">
         <v>27386.077</v>
       </c>
-      <c r="DM9">
+      <c r="DM9" t="n">
         <v>30168.741</v>
       </c>
-      <c r="DN9">
+      <c r="DN9" t="n">
         <v>27009.478</v>
       </c>
-      <c r="DO9">
+      <c r="DO9" t="n">
         <v>20848.835</v>
       </c>
-      <c r="DP9">
+      <c r="DP9" t="n">
         <v>26776.006</v>
       </c>
-      <c r="DQ9">
+      <c r="DQ9" t="n">
         <v>29318.112</v>
       </c>
-      <c r="DR9">
+      <c r="DR9" t="n">
         <v>27267.379</v>
       </c>
-      <c r="DS9">
+      <c r="DS9" t="n">
         <v>25301.721</v>
       </c>
-      <c r="DT9">
+      <c r="DT9" t="n">
         <v>24821.839</v>
       </c>
-      <c r="DU9">
+      <c r="DU9" t="n">
         <v>29938.741</v>
       </c>
-      <c r="DV9">
+      <c r="DV9" t="n">
         <v>28751.234</v>
       </c>
     </row>
-    <row r="10" spans="1:126">
-      <c r="A10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AccomodationRM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="n">
         <v>1297.62890822863</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>1326.62620226725</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>1565.85387808594</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>1500.60996649903</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>1409.26849027735</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>1423.76713729666</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>1596.3010368265</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>1581.80238980719</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>1458.56389014302</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>1526.7075311338</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>1751.43655993316</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>1710.84034827908</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>1568.75360748981</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>1567.30374278788</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>1715.18994238487</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>1738.38777761578</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>1531.05712523959</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>1542.65604285504</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>1707.94061887521</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>1739.83764231771</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>1578.34527851898</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>1610.82646946411</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>1747.96927567688</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>1744.36025446076</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>1621.65353311248</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>1690.22493621887</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>1816.54067878327</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>1800.90158684673</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>1692.63095036296</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>1759.9993463973</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>1839.39781315207</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>1839.39781315207</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>1719.09710594788</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>1794.88655148652</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>1929.62334355521</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>1895.93914553804</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>1806.91662220694</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>1857.4429192327</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>1978.94663350893</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>1951.27747085197</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>1853.434</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>1936.051</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>2029.5</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>2047.54</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>1939.42</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>2015.502</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>2137.784</v>
       </c>
-      <c r="DA10">
+      <c r="DA10" t="n">
         <v>2162.999</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" t="n">
         <v>2036.81</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" t="n">
         <v>2120.337</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" t="n">
         <v>2258.939</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" t="n">
         <v>2288.096</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" t="n">
         <v>2160.237</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" t="n">
         <v>2246.368</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" t="n">
         <v>2397.318</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" t="n">
         <v>2434.706</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" t="n">
         <v>2298.35</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" t="n">
         <v>2394.287</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" t="n">
         <v>2554.911</v>
       </c>
-      <c r="DM10">
+      <c r="DM10" t="n">
         <v>2603.058</v>
       </c>
-      <c r="DN10">
+      <c r="DN10" t="n">
         <v>2190.287</v>
       </c>
-      <c r="DO10">
+      <c r="DO10" t="n">
         <v>499.316</v>
       </c>
-      <c r="DP10">
+      <c r="DP10" t="n">
         <v>1154.17</v>
       </c>
-      <c r="DQ10">
+      <c r="DQ10" t="n">
         <v>1010.588</v>
       </c>
-      <c r="DR10">
+      <c r="DR10" t="n">
         <v>894.946</v>
       </c>
-      <c r="DS10">
+      <c r="DS10" t="n">
         <v>729.6900000000001</v>
       </c>
-      <c r="DT10">
+      <c r="DT10" t="n">
         <v>555.385</v>
       </c>
-      <c r="DU10">
+      <c r="DU10" t="n">
         <v>1493.68</v>
       </c>
-      <c r="DV10">
+      <c r="DV10" t="n">
         <v>1664.758</v>
       </c>
     </row>
-    <row r="11" spans="1:126">
-      <c r="A11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Food and BeverageRM</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="n">
         <v>3329.0430505447</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>3276.38981862281</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>3225.43507805325</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>3436.04800574078</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>3410.570635456</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>3402.07817869439</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>3447.93744520701</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>3801.2236464893</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>3782.54024161379</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>3809.71610325089</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>3901.4346362761</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>4315.86652624187</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>4196.97213157956</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>4174.89174399942</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>4230.94195862594</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>4764.26824325401</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" t="n">
         <v>4473.82622200751</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" t="n">
         <v>4487.41415282607</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" t="n">
         <v>4584.22815990823</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" t="n">
         <v>5024.13742015878</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" t="n">
         <v>4848.11936564312</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>4915.10975605886</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>5052.81222524678</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>5415.05655860599</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>5132.20824351729</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>5261.22677320687</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>5421.25937253337</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>5831.88565452618</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>5487.00920016364</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>5680.53699469802</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>5702.8671248366</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>6171.79985774681</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>5937.3334912917</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>6019.21063513316</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>6058.90864426842</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>6593.5912048089</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>6336.79470821521</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>6418.67185205668</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>6494.34618197076</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>7182.85852791035</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>6893.543</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>6876.179</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>6967.229</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>7615.177</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>7365.938</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>7418.139</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>7539.356</v>
       </c>
-      <c r="DA11">
+      <c r="DA11" t="n">
         <v>8251.933000000001</v>
       </c>
-      <c r="DB11">
+      <c r="DB11" t="n">
         <v>7944.953</v>
       </c>
-      <c r="DC11">
+      <c r="DC11" t="n">
         <v>8010.192</v>
       </c>
-      <c r="DD11">
+      <c r="DD11" t="n">
         <v>8154.513</v>
       </c>
-      <c r="DE11">
+      <c r="DE11" t="n">
         <v>8933.751</v>
       </c>
-      <c r="DF11">
+      <c r="DF11" t="n">
         <v>8609.355</v>
       </c>
-      <c r="DG11">
+      <c r="DG11" t="n">
         <v>8802.831</v>
       </c>
-      <c r="DH11">
+      <c r="DH11" t="n">
         <v>8993.349</v>
       </c>
-      <c r="DI11">
+      <c r="DI11" t="n">
         <v>9857.877</v>
       </c>
-      <c r="DJ11">
+      <c r="DJ11" t="n">
         <v>9494.625</v>
       </c>
-      <c r="DK11">
+      <c r="DK11" t="n">
         <v>9680.761</v>
       </c>
-      <c r="DL11">
+      <c r="DL11" t="n">
         <v>9894.715</v>
       </c>
-      <c r="DM11">
+      <c r="DM11" t="n">
         <v>10900.687</v>
       </c>
-      <c r="DN11">
+      <c r="DN11" t="n">
         <v>9776.454</v>
       </c>
-      <c r="DO11">
+      <c r="DO11" t="n">
         <v>6616.036</v>
       </c>
-      <c r="DP11">
+      <c r="DP11" t="n">
         <v>7582.552</v>
       </c>
-      <c r="DQ11">
+      <c r="DQ11" t="n">
         <v>7698.026</v>
       </c>
-      <c r="DR11">
+      <c r="DR11" t="n">
         <v>7436.613</v>
       </c>
-      <c r="DS11">
+      <c r="DS11" t="n">
         <v>7010.961</v>
       </c>
-      <c r="DT11">
+      <c r="DT11" t="n">
         <v>6687.367</v>
       </c>
-      <c r="DU11">
+      <c r="DU11" t="n">
         <v>7703.962</v>
       </c>
-      <c r="DV11">
+      <c r="DV11" t="n">
         <v>8684.822</v>
       </c>
     </row>
-    <row r="12" spans="1:126">
-      <c r="A12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Transport and StorageRM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
         <v>7972.49321560182</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>7872.30976910947</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
         <v>7251.43604150556</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" t="n">
         <v>7397.75660151412</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="n">
         <v>7255.39065123552</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" t="n">
         <v>7392.48378854085</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" t="n">
         <v>7537.48614530609</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>7772.12632261712</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>7500.57645449312</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>7258.02705772216</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>6940.34007608194</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>7178.93486312293</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>7327.89182961814</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>7711.48897342438</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>6966.70414094834</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>6970.65875067831</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>6957.4767182451</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>6804.56514201994</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>6681.97224039114</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>6647.69895606481</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>6438.10464037686</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>6380.10369767076</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>6357.69424253433</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>6443.37745335015</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>6685.9268501211</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>6701.74528904095</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>6717.56372796079</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>6871.79350742928</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>7020.75047392449</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>7287.02752907521</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>7594.16888476886</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>7706.21616045109</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>7712.8071766677</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>7852.53672045967</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>8019.94853236135</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>7795.85398099689</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>7379.30175610763</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" t="n">
         <v>7338.4374555647</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" t="n">
         <v>7744.44405450739</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" t="n">
         <v>7980.40243506175</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" t="n">
         <v>7994.99574801193</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" t="n">
         <v>7974.75525244734</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" t="n">
         <v>8204.14753551266</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" t="n">
         <v>8432.415346602171</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" t="n">
         <v>8380.689635714891</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" t="n">
         <v>8422.295098819881</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" t="n">
         <v>8703.41309277248</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" t="n">
         <v>8936.178791765229</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" t="n">
         <v>8842.84761777297</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" t="n">
         <v>8901.32016051511</v>
       </c>
-      <c r="CJ12">
+      <c r="CJ12" t="n">
         <v>9022.76313390263</v>
       </c>
-      <c r="CK12">
+      <c r="CK12" t="n">
         <v>9316.25031958915</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" t="n">
         <v>9174.56685063704</v>
       </c>
-      <c r="CM12">
+      <c r="CM12" t="n">
         <v>9271.271440556729</v>
       </c>
-      <c r="CN12">
+      <c r="CN12" t="n">
         <v>9481.54770003327</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" t="n">
         <v>9809.893516969911</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" t="n">
         <v>9631.102472816059</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" t="n">
         <v>9727.80706273575</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" t="n">
         <v>9988.68456112376</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" t="n">
         <v>10412.6104960043</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" t="n">
         <v>10182.846</v>
       </c>
-      <c r="CU12">
+      <c r="CU12" t="n">
         <v>10250.089</v>
       </c>
-      <c r="CV12">
+      <c r="CV12" t="n">
         <v>10567.282</v>
       </c>
-      <c r="CW12">
+      <c r="CW12" t="n">
         <v>11057.176</v>
       </c>
-      <c r="CX12">
+      <c r="CX12" t="n">
         <v>10789.067</v>
       </c>
-      <c r="CY12">
+      <c r="CY12" t="n">
         <v>10877.042</v>
       </c>
-      <c r="CZ12">
+      <c r="CZ12" t="n">
         <v>11118.529</v>
       </c>
-      <c r="DA12">
+      <c r="DA12" t="n">
         <v>11678.446</v>
       </c>
-      <c r="DB12">
+      <c r="DB12" t="n">
         <v>11452.315</v>
       </c>
-      <c r="DC12">
+      <c r="DC12" t="n">
         <v>11559.723</v>
       </c>
-      <c r="DD12">
+      <c r="DD12" t="n">
         <v>11825.659</v>
       </c>
-      <c r="DE12">
+      <c r="DE12" t="n">
         <v>12374.785</v>
       </c>
-      <c r="DF12">
+      <c r="DF12" t="n">
         <v>12102.59</v>
       </c>
-      <c r="DG12">
+      <c r="DG12" t="n">
         <v>12290.706</v>
       </c>
-      <c r="DH12">
+      <c r="DH12" t="n">
         <v>12615.572</v>
       </c>
-      <c r="DI12">
+      <c r="DI12" t="n">
         <v>13199.503</v>
       </c>
-      <c r="DJ12">
+      <c r="DJ12" t="n">
         <v>12902.005</v>
       </c>
-      <c r="DK12">
+      <c r="DK12" t="n">
         <v>13156.882</v>
       </c>
-      <c r="DL12">
+      <c r="DL12" t="n">
         <v>13471.518</v>
       </c>
-      <c r="DM12">
+      <c r="DM12" t="n">
         <v>14101.21</v>
       </c>
-      <c r="DN12">
+      <c r="DN12" t="n">
         <v>12659.903</v>
       </c>
-      <c r="DO12">
+      <c r="DO12" t="n">
         <v>7295.519</v>
       </c>
-      <c r="DP12">
+      <c r="DP12" t="n">
         <v>11281.665</v>
       </c>
-      <c r="DQ12">
+      <c r="DQ12" t="n">
         <v>10902.086</v>
       </c>
-      <c r="DR12">
+      <c r="DR12" t="n">
         <v>10565.148</v>
       </c>
-      <c r="DS12">
+      <c r="DS12" t="n">
         <v>10013.434</v>
       </c>
-      <c r="DT12">
+      <c r="DT12" t="n">
         <v>9901.655000000001</v>
       </c>
-      <c r="DU12">
+      <c r="DU12" t="n">
         <v>12190.647</v>
       </c>
-      <c r="DV12">
+      <c r="DV12" t="n">
         <v>13291.762</v>
       </c>
     </row>
-    <row r="13" spans="1:126">
-      <c r="A13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Infor &amp; CommunicationRM</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
         <v>11531.0305783925</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="n">
         <v>11097.8936591755</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" t="n">
         <v>10461.4138351352</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" t="n">
         <v>10315.9327324974</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" t="n">
         <v>10241.5389868304</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" t="n">
         <v>9849.731926317259</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" t="n">
         <v>9262.84793272165</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>9532.318611471181</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>9686.06568584975</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>9294.258625336621</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>8999.990031364739</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>9350.467233173949</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>8768.54282262281</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>8424.67839820623</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>8394.92089993941</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>8494.112560828809</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>7986.58189594472</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>7869.2050972256</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>7657.59622066155</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>7560.0577541203</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>7125.26764055511</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>6897.1268205095</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>6979.78653791732</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>7100.46972533277</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>7584.85566934266</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>7487.31720280142</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>7569.97692020924</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>7652.63663761708</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>7966.74356376684</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>8060.97564161177</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>8082.46716813781</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>8171.73966293826</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>8619.75533128871</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>8753.664073489401</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>8735.478935659679</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" t="n">
         <v>8740.43851870415</v>
       </c>
-      <c r="BV13">
+      <c r="BV13" t="n">
         <v>9059.505027898371</v>
       </c>
-      <c r="BW13">
+      <c r="BW13" t="n">
         <v>9281.03307055137</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" t="n">
         <v>9287.645847944001</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" t="n">
         <v>9386.8375088334</v>
       </c>
-      <c r="BZ13">
+      <c r="BZ13" t="n">
         <v>9924.94246177455</v>
       </c>
-      <c r="CA13">
+      <c r="CA13" t="n">
         <v>10065.6416667894</v>
       </c>
-      <c r="CB13">
+      <c r="CB13" t="n">
         <v>10239.2049196908</v>
       </c>
-      <c r="CC13">
+      <c r="CC13" t="n">
         <v>10350.1210813084</v>
       </c>
-      <c r="CD13">
+      <c r="CD13" t="n">
         <v>10584.2774225009</v>
       </c>
-      <c r="CE13">
+      <c r="CE13" t="n">
         <v>10796.8667322678</v>
       </c>
-      <c r="CF13">
+      <c r="CF13" t="n">
         <v>11020.7530584957</v>
       </c>
-      <c r="CG13">
+      <c r="CG13" t="n">
         <v>11165.5602694964</v>
       </c>
-      <c r="CH13">
+      <c r="CH13" t="n">
         <v>11544.5238216895</v>
       </c>
-      <c r="CI13">
+      <c r="CI13" t="n">
         <v>11898.8393379677</v>
       </c>
-      <c r="CJ13">
+      <c r="CJ13" t="n">
         <v>12043.6465489684</v>
       </c>
-      <c r="CK13">
+      <c r="CK13" t="n">
         <v>11945.0544053083</v>
       </c>
-      <c r="CL13">
+      <c r="CL13" t="n">
         <v>12360.990011374</v>
       </c>
-      <c r="CM13">
+      <c r="CM13" t="n">
         <v>12985.4069212208</v>
       </c>
-      <c r="CN13">
+      <c r="CN13" t="n">
         <v>13318.1554060733</v>
       </c>
-      <c r="CO13">
+      <c r="CO13" t="n">
         <v>13092.2150768524</v>
       </c>
-      <c r="CP13">
+      <c r="CP13" t="n">
         <v>13647.8228864365</v>
       </c>
-      <c r="CQ13">
+      <c r="CQ13" t="n">
         <v>14252.7267678505</v>
       </c>
-      <c r="CR13">
+      <c r="CR13" t="n">
         <v>14619.3663020862</v>
       </c>
-      <c r="CS13">
+      <c r="CS13" t="n">
         <v>14391.3719698723</v>
       </c>
-      <c r="CT13">
+      <c r="CT13" t="n">
         <v>15048.614</v>
       </c>
-      <c r="CU13">
+      <c r="CU13" t="n">
         <v>15542.565</v>
       </c>
-      <c r="CV13">
+      <c r="CV13" t="n">
         <v>15993.667</v>
       </c>
-      <c r="CW13">
+      <c r="CW13" t="n">
         <v>15717.837</v>
       </c>
-      <c r="CX13">
+      <c r="CX13" t="n">
         <v>16292.729</v>
       </c>
-      <c r="CY13">
+      <c r="CY13" t="n">
         <v>16887.565</v>
       </c>
-      <c r="CZ13">
+      <c r="CZ13" t="n">
         <v>17193.55</v>
       </c>
-      <c r="DA13">
+      <c r="DA13" t="n">
         <v>16926.977</v>
       </c>
-      <c r="DB13">
+      <c r="DB13" t="n">
         <v>17666.583</v>
       </c>
-      <c r="DC13">
+      <c r="DC13" t="n">
         <v>18373.98</v>
       </c>
-      <c r="DD13">
+      <c r="DD13" t="n">
         <v>18738.985</v>
       </c>
-      <c r="DE13">
+      <c r="DE13" t="n">
         <v>18333.727</v>
       </c>
-      <c r="DF13">
+      <c r="DF13" t="n">
         <v>19103.607</v>
       </c>
-      <c r="DG13">
+      <c r="DG13" t="n">
         <v>19937.823</v>
       </c>
-      <c r="DH13">
+      <c r="DH13" t="n">
         <v>20295.805</v>
       </c>
-      <c r="DI13">
+      <c r="DI13" t="n">
         <v>19773.231</v>
       </c>
-      <c r="DJ13">
+      <c r="DJ13" t="n">
         <v>20467.693</v>
       </c>
-      <c r="DK13">
+      <c r="DK13" t="n">
         <v>21164.479</v>
       </c>
-      <c r="DL13">
+      <c r="DL13" t="n">
         <v>21503.676</v>
       </c>
-      <c r="DM13">
+      <c r="DM13" t="n">
         <v>21089.598</v>
       </c>
-      <c r="DN13">
+      <c r="DN13" t="n">
         <v>21842.875</v>
       </c>
-      <c r="DO13">
+      <c r="DO13" t="n">
         <v>22175.942</v>
       </c>
-      <c r="DP13">
+      <c r="DP13" t="n">
         <v>22637.228</v>
       </c>
-      <c r="DQ13">
+      <c r="DQ13" t="n">
         <v>22596.403</v>
       </c>
-      <c r="DR13">
+      <c r="DR13" t="n">
         <v>23223.838</v>
       </c>
-      <c r="DS13">
+      <c r="DS13" t="n">
         <v>23473.816</v>
       </c>
-      <c r="DT13">
+      <c r="DT13" t="n">
         <v>24039.684</v>
       </c>
-      <c r="DU13">
+      <c r="DU13" t="n">
         <v>24136.301</v>
       </c>
-      <c r="DV13">
+      <c r="DV13" t="n">
         <v>24694.218</v>
       </c>
     </row>
-    <row r="14" spans="1:126">
-      <c r="A14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BF14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>FinanceRM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="n">
         <v>7879.69677283038</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>8000.54445677851</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>8055.08633183475</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>8297.851148261519</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>8581.255008847849</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>8780.172435523529</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>9007.96497252311</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>9332.007877268979</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>10123.3997898497</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>10192.9139443331</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>10325.5255621169</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>10591.818246215</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>11322.2515925564</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>11128.6814085333</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>11240.9735042372</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" t="n">
         <v>11188.570526242</v>
       </c>
-      <c r="BV14">
+      <c r="BV14" t="n">
         <v>11530.7940560066</v>
       </c>
-      <c r="BW14">
+      <c r="BW14" t="n">
         <v>11810.9895710014</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" t="n">
         <v>11691.2113355838</v>
       </c>
-      <c r="BY14">
+      <c r="BY14" t="n">
         <v>12328.6026597704</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ14" t="n">
         <v>12654.8248535569</v>
       </c>
-      <c r="CA14">
+      <c r="CA14" t="n">
         <v>13034.826866013</v>
       </c>
-      <c r="CB14">
+      <c r="CB14" t="n">
         <v>12682.9731507759</v>
       </c>
-      <c r="CC14">
+      <c r="CC14" t="n">
         <v>13252.4348560519</v>
       </c>
-      <c r="CD14">
+      <c r="CD14" t="n">
         <v>13571.8097668055</v>
       </c>
-      <c r="CE14">
+      <c r="CE14" t="n">
         <v>13907.4240798009</v>
       </c>
-      <c r="CF14">
+      <c r="CF14" t="n">
         <v>13512.2652919193</v>
       </c>
-      <c r="CG14">
+      <c r="CG14" t="n">
         <v>13886.8541702947</v>
       </c>
-      <c r="CH14">
+      <c r="CH14" t="n">
         <v>13690.8987165781</v>
       </c>
-      <c r="CI14">
+      <c r="CI14" t="n">
         <v>14451.9853683062</v>
       </c>
-      <c r="CJ14">
+      <c r="CJ14" t="n">
         <v>14769.1950254277</v>
       </c>
-      <c r="CK14">
+      <c r="CK14" t="n">
         <v>14870.9619461424</v>
       </c>
-      <c r="CL14">
+      <c r="CL14" t="n">
         <v>14162.9240084038</v>
       </c>
-      <c r="CM14">
+      <c r="CM14" t="n">
         <v>14529.9344990665</v>
       </c>
-      <c r="CN14">
+      <c r="CN14" t="n">
         <v>15136.2055160903</v>
       </c>
-      <c r="CO14">
+      <c r="CO14" t="n">
         <v>15211.9893932183</v>
       </c>
-      <c r="CP14">
+      <c r="CP14" t="n">
         <v>14581.9005862399</v>
       </c>
-      <c r="CQ14">
+      <c r="CQ14" t="n">
         <v>14578.6527057916</v>
       </c>
-      <c r="CR14">
+      <c r="CR14" t="n">
         <v>15450.1672927634</v>
       </c>
-      <c r="CS14">
+      <c r="CS14" t="n">
         <v>15479.3982167985</v>
       </c>
-      <c r="CT14">
+      <c r="CT14" t="n">
         <v>14866.716</v>
       </c>
-      <c r="CU14">
+      <c r="CU14" t="n">
         <v>14914.3</v>
       </c>
-      <c r="CV14">
+      <c r="CV14" t="n">
         <v>14961.975</v>
       </c>
-      <c r="CW14">
+      <c r="CW14" t="n">
         <v>15274.571</v>
       </c>
-      <c r="CX14">
+      <c r="CX14" t="n">
         <v>14963.076</v>
       </c>
-      <c r="CY14">
+      <c r="CY14" t="n">
         <v>14904.778</v>
       </c>
-      <c r="CZ14">
+      <c r="CZ14" t="n">
         <v>15297.545</v>
       </c>
-      <c r="DA14">
+      <c r="DA14" t="n">
         <v>15722.153</v>
       </c>
-      <c r="DB14">
+      <c r="DB14" t="n">
         <v>15570.861</v>
       </c>
-      <c r="DC14">
+      <c r="DC14" t="n">
         <v>15758.709</v>
       </c>
-      <c r="DD14">
+      <c r="DD14" t="n">
         <v>16109.227</v>
       </c>
-      <c r="DE14">
+      <c r="DE14" t="n">
         <v>16533.93</v>
       </c>
-      <c r="DF14">
+      <c r="DF14" t="n">
         <v>16602.503</v>
       </c>
-      <c r="DG14">
+      <c r="DG14" t="n">
         <v>16106.355</v>
       </c>
-      <c r="DH14">
+      <c r="DH14" t="n">
         <v>16745.568</v>
       </c>
-      <c r="DI14">
+      <c r="DI14" t="n">
         <v>17030.327</v>
       </c>
-      <c r="DJ14">
+      <c r="DJ14" t="n">
         <v>16960.952</v>
       </c>
-      <c r="DK14">
+      <c r="DK14" t="n">
         <v>16966.633</v>
       </c>
-      <c r="DL14">
+      <c r="DL14" t="n">
         <v>17440.266</v>
       </c>
-      <c r="DM14">
+      <c r="DM14" t="n">
         <v>18020.311</v>
       </c>
-      <c r="DN14">
+      <c r="DN14" t="n">
         <v>17657.093</v>
       </c>
-      <c r="DO14">
+      <c r="DO14" t="n">
         <v>15397.603</v>
       </c>
-      <c r="DP14">
+      <c r="DP14" t="n">
         <v>18811.042</v>
       </c>
-      <c r="DQ14">
+      <c r="DQ14" t="n">
         <v>19109.76</v>
       </c>
-      <c r="DR14">
+      <c r="DR14" t="n">
         <v>19589.07</v>
       </c>
-      <c r="DS14">
+      <c r="DS14" t="n">
         <v>19687.339</v>
       </c>
-      <c r="DT14">
+      <c r="DT14" t="n">
         <v>18874.285</v>
       </c>
-      <c r="DU14">
+      <c r="DU14" t="n">
         <v>19329.91</v>
       </c>
-      <c r="DV14">
+      <c r="DV14" t="n">
         <v>19172.402</v>
       </c>
     </row>
-    <row r="15" spans="1:126">
-      <c r="A15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>InsuranceRM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="n">
         <v>2690.601759121</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" t="n">
         <v>2827.63321492102</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" t="n">
         <v>2813.49504884642</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" t="n">
         <v>3185.43757173218</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" t="n">
         <v>2710.17768137815</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" t="n">
         <v>2916.81241631469</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" t="n">
         <v>2982.06549050517</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" t="n">
         <v>3221.32676253695</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" t="n">
         <v>2830.89586863055</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" t="n">
         <v>2901.58669900358</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" t="n">
         <v>2848.29668841468</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" t="n">
         <v>3348.5702572084</v>
       </c>
-      <c r="BR15">
+      <c r="BR15" t="n">
         <v>3138.67286856234</v>
       </c>
-      <c r="BS15">
+      <c r="BS15" t="n">
         <v>3257.21595334172</v>
       </c>
-      <c r="BT15">
+      <c r="BT15" t="n">
         <v>3628.07092499098</v>
       </c>
-      <c r="BU15">
+      <c r="BU15" t="n">
         <v>3410.56067768936</v>
       </c>
-      <c r="BV15">
+      <c r="BV15" t="n">
         <v>3151.72348340043</v>
       </c>
-      <c r="BW15">
+      <c r="BW15" t="n">
         <v>3022.30488625597</v>
       </c>
-      <c r="BX15">
+      <c r="BX15" t="n">
         <v>3646.55929601161</v>
       </c>
-      <c r="BY15">
+      <c r="BY15" t="n">
         <v>3709.63726772908</v>
       </c>
-      <c r="BZ15">
+      <c r="BZ15" t="n">
         <v>3450.6490373315</v>
       </c>
-      <c r="CA15">
+      <c r="CA15" t="n">
         <v>3538.70714332868</v>
       </c>
-      <c r="CB15">
+      <c r="CB15" t="n">
         <v>3730.1823272993</v>
       </c>
-      <c r="CC15">
+      <c r="CC15" t="n">
         <v>3505.94133644601</v>
       </c>
-      <c r="CD15">
+      <c r="CD15" t="n">
         <v>3799.80966692498</v>
       </c>
-      <c r="CE15">
+      <c r="CE15" t="n">
         <v>3729.15839583422</v>
       </c>
-      <c r="CF15">
+      <c r="CF15" t="n">
         <v>3884.79597852691</v>
       </c>
-      <c r="CG15">
+      <c r="CG15" t="n">
         <v>4038.38569828944</v>
       </c>
-      <c r="CH15">
+      <c r="CH15" t="n">
         <v>4035.31390389419</v>
       </c>
-      <c r="CI15">
+      <c r="CI15" t="n">
         <v>4352.73265807009</v>
       </c>
-      <c r="CJ15">
+      <c r="CJ15" t="n">
         <v>4610.76338727114</v>
       </c>
-      <c r="CK15">
+      <c r="CK15" t="n">
         <v>4932.27786730737</v>
       </c>
-      <c r="CL15">
+      <c r="CL15" t="n">
         <v>4630.21808510773</v>
       </c>
-      <c r="CM15">
+      <c r="CM15" t="n">
         <v>4346.58906927959</v>
       </c>
-      <c r="CN15">
+      <c r="CN15" t="n">
         <v>4476.62836534519</v>
       </c>
-      <c r="CO15">
+      <c r="CO15" t="n">
         <v>4755.13772384791</v>
       </c>
-      <c r="CP15">
+      <c r="CP15" t="n">
         <v>4725.44371136049</v>
       </c>
-      <c r="CQ15">
+      <c r="CQ15" t="n">
         <v>4467.41298215944</v>
       </c>
-      <c r="CR15">
+      <c r="CR15" t="n">
         <v>4785.85566780042</v>
       </c>
-      <c r="CS15">
+      <c r="CS15" t="n">
         <v>4958.90008539954</v>
       </c>
-      <c r="CT15">
+      <c r="CT15" t="n">
         <v>4873.899</v>
       </c>
-      <c r="CU15">
+      <c r="CU15" t="n">
         <v>4372.186</v>
       </c>
-      <c r="CV15">
+      <c r="CV15" t="n">
         <v>4321.901</v>
       </c>
-      <c r="CW15">
+      <c r="CW15" t="n">
         <v>5047.677</v>
       </c>
-      <c r="CX15">
+      <c r="CX15" t="n">
         <v>4852.411</v>
       </c>
-      <c r="CY15">
+      <c r="CY15" t="n">
         <v>4728.48</v>
       </c>
-      <c r="CZ15">
+      <c r="CZ15" t="n">
         <v>4976.63</v>
       </c>
-      <c r="DA15">
+      <c r="DA15" t="n">
         <v>5277.301</v>
       </c>
-      <c r="DB15">
+      <c r="DB15" t="n">
         <v>4951.926</v>
       </c>
-      <c r="DC15">
+      <c r="DC15" t="n">
         <v>4891.682</v>
       </c>
-      <c r="DD15">
+      <c r="DD15" t="n">
         <v>5033.889</v>
       </c>
-      <c r="DE15">
+      <c r="DE15" t="n">
         <v>5681.284</v>
       </c>
-      <c r="DF15">
+      <c r="DF15" t="n">
         <v>5429.485</v>
       </c>
-      <c r="DG15">
+      <c r="DG15" t="n">
         <v>5529.734</v>
       </c>
-      <c r="DH15">
+      <c r="DH15" t="n">
         <v>5599.897</v>
       </c>
-      <c r="DI15">
+      <c r="DI15" t="n">
         <v>6044.402</v>
       </c>
-      <c r="DJ15">
+      <c r="DJ15" t="n">
         <v>6088.633</v>
       </c>
-      <c r="DK15">
+      <c r="DK15" t="n">
         <v>5709.425</v>
       </c>
-      <c r="DL15">
+      <c r="DL15" t="n">
         <v>5877.015</v>
       </c>
-      <c r="DM15">
+      <c r="DM15" t="n">
         <v>6294.872</v>
       </c>
-      <c r="DN15">
+      <c r="DN15" t="n">
         <v>6572.632</v>
       </c>
-      <c r="DO15">
+      <c r="DO15" t="n">
         <v>5986.186</v>
       </c>
-      <c r="DP15">
+      <c r="DP15" t="n">
         <v>5851.937</v>
       </c>
-      <c r="DQ15">
+      <c r="DQ15" t="n">
         <v>6719.524</v>
       </c>
-      <c r="DR15">
+      <c r="DR15" t="n">
         <v>7310.346</v>
       </c>
-      <c r="DS15">
+      <c r="DS15" t="n">
         <v>6604.485</v>
       </c>
-      <c r="DT15">
+      <c r="DT15" t="n">
         <v>6834.27</v>
       </c>
-      <c r="DU15">
+      <c r="DU15" t="n">
         <v>7482.873</v>
       </c>
-      <c r="DV15">
+      <c r="DV15" t="n">
         <v>7457.782</v>
       </c>
     </row>
-    <row r="16" spans="1:126">
-      <c r="A16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Government ServicesRM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>34027.0521765331</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>28644.6398962164</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>28812.3997341833</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>25396.583873731</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>29570.8433713783</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>32033.6705724556</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>26906.4224154331</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>22403.6919745396</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>30814.2398174861</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>24041.8174511578</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>22433.296651828</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>24234.9527268003</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>25543.1975136348</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>25027.2302808962</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>22285.2732653866</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>19952.1427457626</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>24683.2521257371</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>18229.4324768923</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>19444.6339922493</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>19071.051159802</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>22761.7675950741</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>20455.4222596634</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>18505.7427982496</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>17370.8968355322</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>19612.3938302162</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="n">
         <v>17767.0356125802</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" t="n">
         <v>17771.2648521927</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" t="n">
         <v>17076.2598091869</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="n">
         <v>19914.0795892491</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" t="n">
         <v>18476.1381209613</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" t="n">
         <v>17730.3822026042</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="n">
         <v>17552.7541388745</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" t="n">
         <v>17476.6278258475</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" t="n">
         <v>16969.1190723342</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" t="n">
         <v>16423.5471623073</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" t="n">
         <v>15968.1990306827</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" t="n">
         <v>15524.1288713586</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" t="n">
         <v>15022.2591039954</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" t="n">
         <v>14535.8965485451</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" t="n">
         <v>14259.5862271878</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" t="n">
         <v>15113.8926289353</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" t="n">
         <v>14186.2794072359</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" t="n">
         <v>13952.2614820047</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" t="n">
         <v>13582.90788917</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" t="n">
         <v>14354.0392452028</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" t="n">
         <v>13876.1351689777</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" t="n">
         <v>13419.3772908157</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" t="n">
         <v>12432.5547145398</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" t="n">
         <v>13264.3051716866</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" t="n">
         <v>12560.8416494556</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" t="n">
         <v>12464.9788849031</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" t="n">
         <v>11917.9972283387</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" t="n">
         <v>12491.7640691163</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" t="n">
         <v>11951.8311452396</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" t="n">
         <v>11782.6615607351</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" t="n">
         <v>11227.2214249455</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" t="n">
         <v>11765.7446022846</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" t="n">
         <v>12409.9987699391</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" t="n">
         <v>12816.0057727498</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" t="n">
         <v>13272.7636509118</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ16" t="n">
         <v>13124.7402644705</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" t="n">
         <v>13955.0809750798</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" t="n">
         <v>14076.319177308</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" t="n">
         <v>14960.2302563437</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" t="n">
         <v>13960.71996123</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" t="n">
         <v>14385.0536690286</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" t="n">
         <v>14588.057170434</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" t="n">
         <v>15562.1920278721</v>
       </c>
-      <c r="BR16">
+      <c r="BR16" t="n">
         <v>14468.2287147433</v>
       </c>
-      <c r="BS16">
+      <c r="BS16" t="n">
         <v>15027.8980901455</v>
       </c>
-      <c r="BT16">
+      <c r="BT16" t="n">
         <v>15610.1234101483</v>
       </c>
-      <c r="BU16">
+      <c r="BU16" t="n">
         <v>17813.5572483189</v>
       </c>
-      <c r="BV16">
+      <c r="BV16" t="n">
         <v>14930.6255790555</v>
       </c>
-      <c r="BW16">
+      <c r="BW16" t="n">
         <v>15276.013480752</v>
       </c>
-      <c r="BX16">
+      <c r="BX16" t="n">
         <v>16721.0036817276</v>
       </c>
-      <c r="BY16">
+      <c r="BY16" t="n">
         <v>18125.1112331146</v>
       </c>
-      <c r="BZ16">
+      <c r="BZ16" t="n">
         <v>16030.7791286556</v>
       </c>
-      <c r="CA16">
+      <c r="CA16" t="n">
         <v>16511.4348768203</v>
       </c>
-      <c r="CB16">
+      <c r="CB16" t="n">
         <v>17093.7883890733</v>
       </c>
-      <c r="CC16">
+      <c r="CC16" t="n">
         <v>19260.486015544</v>
       </c>
-      <c r="CD16">
+      <c r="CD16" t="n">
         <v>18145.0221189123</v>
       </c>
-      <c r="CE16">
+      <c r="CE16" t="n">
         <v>18528.2621141082</v>
       </c>
-      <c r="CF16">
+      <c r="CF16" t="n">
         <v>18828.0028924737</v>
       </c>
-      <c r="CG16">
+      <c r="CG16" t="n">
         <v>21042.8731440389</v>
       </c>
-      <c r="CH16">
+      <c r="CH16" t="n">
         <v>19452.1060131419</v>
       </c>
-      <c r="CI16">
+      <c r="CI16" t="n">
         <v>20114.7472338857</v>
       </c>
-      <c r="CJ16">
+      <c r="CJ16" t="n">
         <v>20924.0473354726</v>
       </c>
-      <c r="CK16">
+      <c r="CK16" t="n">
         <v>23435.4468570636</v>
       </c>
-      <c r="CL16">
+      <c r="CL16" t="n">
         <v>20685.32521556</v>
       </c>
-      <c r="CM16">
+      <c r="CM16" t="n">
         <v>21482.8497865683</v>
       </c>
-      <c r="CN16">
+      <c r="CN16" t="n">
         <v>22706.4344639675</v>
       </c>
-      <c r="CO16">
+      <c r="CO16" t="n">
         <v>25223.1864994579</v>
       </c>
-      <c r="CP16">
+      <c r="CP16" t="n">
         <v>22299.6434076143</v>
       </c>
-      <c r="CQ16">
+      <c r="CQ16" t="n">
         <v>22982.6241811757</v>
       </c>
-      <c r="CR16">
+      <c r="CR16" t="n">
         <v>24070.2550055306</v>
       </c>
-      <c r="CS16">
+      <c r="CS16" t="n">
         <v>26447.841679637</v>
       </c>
-      <c r="CT16">
+      <c r="CT16" t="n">
         <v>23180.79</v>
       </c>
-      <c r="CU16">
+      <c r="CU16" t="n">
         <v>23939.739</v>
       </c>
-      <c r="CV16">
+      <c r="CV16" t="n">
         <v>24906.01</v>
       </c>
-      <c r="CW16">
+      <c r="CW16" t="n">
         <v>27756.219</v>
       </c>
-      <c r="CX16">
+      <c r="CX16" t="n">
         <v>24467.373</v>
       </c>
-      <c r="CY16">
+      <c r="CY16" t="n">
         <v>25148.699</v>
       </c>
-      <c r="CZ16">
+      <c r="CZ16" t="n">
         <v>26199.432</v>
       </c>
-      <c r="DA16">
+      <c r="DA16" t="n">
         <v>28804.852</v>
       </c>
-      <c r="DB16">
+      <c r="DB16" t="n">
         <v>25664.757</v>
       </c>
-      <c r="DC16">
+      <c r="DC16" t="n">
         <v>26221.256</v>
       </c>
-      <c r="DD16">
+      <c r="DD16" t="n">
         <v>27761.305</v>
       </c>
-      <c r="DE16">
+      <c r="DE16" t="n">
         <v>30046.787</v>
       </c>
-      <c r="DF16">
+      <c r="DF16" t="n">
         <v>26957.936</v>
       </c>
-      <c r="DG16">
+      <c r="DG16" t="n">
         <v>27472.972</v>
       </c>
-      <c r="DH16">
+      <c r="DH16" t="n">
         <v>28897.252</v>
       </c>
-      <c r="DI16">
+      <c r="DI16" t="n">
         <v>31562.891</v>
       </c>
-      <c r="DJ16">
+      <c r="DJ16" t="n">
         <v>28041.653</v>
       </c>
-      <c r="DK16">
+      <c r="DK16" t="n">
         <v>28408.207</v>
       </c>
-      <c r="DL16">
+      <c r="DL16" t="n">
         <v>29647.07</v>
       </c>
-      <c r="DM16">
+      <c r="DM16" t="n">
         <v>32707.227</v>
       </c>
-      <c r="DN16">
+      <c r="DN16" t="n">
         <v>29315.756</v>
       </c>
-      <c r="DO16">
+      <c r="DO16" t="n">
         <v>29376.835</v>
       </c>
-      <c r="DP16">
+      <c r="DP16" t="n">
         <v>31195.825</v>
       </c>
-      <c r="DQ16">
+      <c r="DQ16" t="n">
         <v>34356.398</v>
       </c>
-      <c r="DR16">
+      <c r="DR16" t="n">
         <v>30937.423</v>
       </c>
-      <c r="DS16">
+      <c r="DS16" t="n">
         <v>31075.339</v>
       </c>
-      <c r="DT16">
+      <c r="DT16" t="n">
         <v>32809.598</v>
       </c>
-      <c r="DU16">
+      <c r="DU16" t="n">
         <v>36193.793</v>
       </c>
-      <c r="DV16">
+      <c r="DV16" t="n">
         <v>32686.251</v>
       </c>
     </row>
-    <row r="17" spans="1:126">
-      <c r="A17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Other ServicesRM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>18081.1726452441</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>17923.1252842905</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>17849.1849984642</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>17348.2395619911</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>16616.230732311</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>15930.4345812722</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>15346.3063232446</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>14753.8597830615</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>14314.839335968</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>13981.1837961769</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>13294.4633915653</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>13128.0977484562</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>12775.0328836356</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>12101.2520290437</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>11528.21481389</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>11572.5789853858</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>11081.8003382138</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>10585.4761696049</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>10240.7295869399</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>10018.908729461</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>9457.88681075418</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>9194.47454249801</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>8971.729431446331</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>8957.865627853889</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" t="n">
         <v>8687.983584588001</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="n">
         <v>8323.827676893559</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="n">
         <v>8154.68927306594</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" t="n">
         <v>8117.71913015281</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" t="n">
         <v>7884.80722980002</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" t="n">
         <v>7578.87929719379</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" t="n">
         <v>7807.16992968242</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" t="n">
         <v>7916.23185127619</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" t="n">
         <v>7602.90989008733</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" t="n">
         <v>7601.06138294167</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" t="n">
         <v>7328.40657895727</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" t="n">
         <v>7396.80134334657</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" t="n">
         <v>7284.96666103431</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" t="n">
         <v>7329.33083253008</v>
       </c>
-      <c r="AN17">
+      <c r="AN17" t="n">
         <v>7206.4051073439</v>
       </c>
-      <c r="AO17">
+      <c r="AO17" t="n">
         <v>7080.70662143922</v>
       </c>
-      <c r="AP17">
+      <c r="AP17" t="n">
         <v>7031.72118207931</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" t="n">
         <v>6995.675292739</v>
       </c>
-      <c r="AR17">
+      <c r="AR17" t="n">
         <v>6917.11373904857</v>
       </c>
-      <c r="AS17">
+      <c r="AS17" t="n">
         <v>6788.6424924254</v>
       </c>
-      <c r="AT17">
+      <c r="AT17" t="n">
         <v>6741.50556021116</v>
       </c>
-      <c r="AU17">
+      <c r="AU17" t="n">
         <v>6772.93018168732</v>
       </c>
-      <c r="AV17">
+      <c r="AV17" t="n">
         <v>6643.53468149133</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" t="n">
         <v>6518.76044915949</v>
       </c>
-      <c r="AX17">
+      <c r="AX17" t="n">
         <v>6489.18433482897</v>
       </c>
-      <c r="AY17">
+      <c r="AY17" t="n">
         <v>6518.76044915948</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ17" t="n">
         <v>6369.95562393409</v>
       </c>
-      <c r="BA17">
+      <c r="BA17" t="n">
         <v>6306.18212740893</v>
       </c>
-      <c r="BB17">
+      <c r="BB17" t="n">
         <v>6289.54556309802</v>
       </c>
-      <c r="BC17">
+      <c r="BC17" t="n">
         <v>6188.8019236597</v>
       </c>
-      <c r="BD17">
+      <c r="BD17" t="n">
         <v>6111.16462354211</v>
       </c>
-      <c r="BE17">
+      <c r="BE17" t="n">
         <v>6066.80045204634</v>
       </c>
-      <c r="BF17">
+      <c r="BF17" t="n">
         <v>6108.39186282362</v>
       </c>
-      <c r="BG17">
+      <c r="BG17" t="n">
         <v>6298.7880988263</v>
       </c>
-      <c r="BH17">
+      <c r="BH17" t="n">
         <v>6477.1690383822</v>
       </c>
-      <c r="BI17">
+      <c r="BI17" t="n">
         <v>6532.62425275191</v>
       </c>
-      <c r="BJ17">
+      <c r="BJ17" t="n">
         <v>6346.84928461338</v>
       </c>
-      <c r="BK17">
+      <c r="BK17" t="n">
         <v>6515.987688441</v>
       </c>
-      <c r="BL17">
+      <c r="BL17" t="n">
         <v>6578.83693139333</v>
       </c>
-      <c r="BM17">
+      <c r="BM17" t="n">
         <v>6695.29288156973</v>
       </c>
-      <c r="BN17">
+      <c r="BN17" t="n">
         <v>6622.27684931627</v>
       </c>
-      <c r="BO17">
+      <c r="BO17" t="n">
         <v>6898.628667592</v>
       </c>
-      <c r="BP17">
+      <c r="BP17" t="n">
         <v>7031.72118207931</v>
       </c>
-      <c r="BQ17">
+      <c r="BQ17" t="n">
         <v>7136.16183580893</v>
       </c>
-      <c r="BR17">
+      <c r="BR17" t="n">
         <v>7003.99357489445</v>
       </c>
-      <c r="BS17">
+      <c r="BS17" t="n">
         <v>7323.78531109312</v>
       </c>
-      <c r="BT17">
+      <c r="BT17" t="n">
         <v>7451.33230414345</v>
       </c>
-      <c r="BU17">
+      <c r="BU17" t="n">
         <v>7578.87929719379</v>
       </c>
-      <c r="BV17">
+      <c r="BV17" t="n">
         <v>7305.30023963654</v>
       </c>
-      <c r="BW17">
+      <c r="BW17" t="n">
         <v>7604.75839723298</v>
       </c>
-      <c r="BX17">
+      <c r="BX17" t="n">
         <v>7699.95651523432</v>
       </c>
-      <c r="BY17">
+      <c r="BY17" t="n">
         <v>7858.00387618799</v>
       </c>
-      <c r="BZ17">
+      <c r="BZ17" t="n">
         <v>7688.33169592657</v>
       </c>
-      <c r="CA17">
+      <c r="CA17" t="n">
         <v>7878.6583498147</v>
       </c>
-      <c r="CB17">
+      <c r="CB17" t="n">
         <v>8017.07773446061</v>
       </c>
-      <c r="CC17">
+      <c r="CC17" t="n">
         <v>8223.841690275451</v>
       </c>
-      <c r="CD17">
+      <c r="CD17" t="n">
         <v>8104.45497101835</v>
       </c>
-      <c r="CE17">
+      <c r="CE17" t="n">
         <v>8299.107230676669</v>
       </c>
-      <c r="CF17">
+      <c r="CF17" t="n">
         <v>8449.638311479101</v>
       </c>
-      <c r="CG17">
+      <c r="CG17" t="n">
         <v>8540.476032652979</v>
       </c>
-      <c r="CH17">
+      <c r="CH17" t="n">
         <v>8480.782673024431</v>
       </c>
-      <c r="CI17">
+      <c r="CI17" t="n">
         <v>8691.872234609449</v>
       </c>
-      <c r="CJ17">
+      <c r="CJ17" t="n">
         <v>8814.719438482711</v>
       </c>
-      <c r="CK17">
+      <c r="CK17" t="n">
         <v>8909.01764427273</v>
       </c>
-      <c r="CL17">
+      <c r="CL17" t="n">
         <v>8965.250519285129</v>
       </c>
-      <c r="CM17">
+      <c r="CM17" t="n">
         <v>9199.69835202916</v>
       </c>
-      <c r="CN17">
+      <c r="CN17" t="n">
         <v>9300.917527051481</v>
       </c>
-      <c r="CO17">
+      <c r="CO17" t="n">
         <v>9383.96915783903</v>
       </c>
-      <c r="CP17">
+      <c r="CP17" t="n">
         <v>9442.79739631355</v>
       </c>
-      <c r="CQ17">
+      <c r="CQ17" t="n">
         <v>9606.305294426529</v>
       </c>
-      <c r="CR17">
+      <c r="CR17" t="n">
         <v>9745.58980022648</v>
       </c>
-      <c r="CS17">
+      <c r="CS17" t="n">
         <v>9832.101915630181</v>
       </c>
-      <c r="CT17">
+      <c r="CT17" t="n">
         <v>14084.148</v>
       </c>
-      <c r="CU17">
+      <c r="CU17" t="n">
         <v>14376.477</v>
       </c>
-      <c r="CV17">
+      <c r="CV17" t="n">
         <v>14570.996</v>
       </c>
-      <c r="CW17">
+      <c r="CW17" t="n">
         <v>14693.095</v>
       </c>
-      <c r="CX17">
+      <c r="CX17" t="n">
         <v>14750.348</v>
       </c>
-      <c r="CY17">
+      <c r="CY17" t="n">
         <v>15035.866</v>
       </c>
-      <c r="CZ17">
+      <c r="CZ17" t="n">
         <v>15307.181</v>
       </c>
-      <c r="DA17">
+      <c r="DA17" t="n">
         <v>15446.053</v>
       </c>
-      <c r="DB17">
+      <c r="DB17" t="n">
         <v>15518.035</v>
       </c>
-      <c r="DC17">
+      <c r="DC17" t="n">
         <v>15793.548</v>
       </c>
-      <c r="DD17">
+      <c r="DD17" t="n">
         <v>16106.108</v>
       </c>
-      <c r="DE17">
+      <c r="DE17" t="n">
         <v>16231.071</v>
       </c>
-      <c r="DF17">
+      <c r="DF17" t="n">
         <v>16325.979</v>
       </c>
-      <c r="DG17">
+      <c r="DG17" t="n">
         <v>16662.275</v>
       </c>
-      <c r="DH17">
+      <c r="DH17" t="n">
         <v>17037.584</v>
       </c>
-      <c r="DI17">
+      <c r="DI17" t="n">
         <v>17143.706</v>
       </c>
-      <c r="DJ17">
+      <c r="DJ17" t="n">
         <v>17237.317</v>
       </c>
-      <c r="DK17">
+      <c r="DK17" t="n">
         <v>17548.781</v>
       </c>
-      <c r="DL17">
+      <c r="DL17" t="n">
         <v>18006.223</v>
       </c>
-      <c r="DM17">
+      <c r="DM17" t="n">
         <v>18150.318</v>
       </c>
-      <c r="DN17">
+      <c r="DN17" t="n">
         <v>17479.978</v>
       </c>
-      <c r="DO17">
+      <c r="DO17" t="n">
         <v>13994.434</v>
       </c>
-      <c r="DP17">
+      <c r="DP17" t="n">
         <v>16129.001</v>
       </c>
-      <c r="DQ17">
+      <c r="DQ17" t="n">
         <v>15971.299</v>
       </c>
-      <c r="DR17">
+      <c r="DR17" t="n">
         <v>15375.131</v>
       </c>
-      <c r="DS17">
+      <c r="DS17" t="n">
         <v>15273.973</v>
       </c>
-      <c r="DT17">
+      <c r="DT17" t="n">
         <v>14671.183</v>
       </c>
-      <c r="DU17">
+      <c r="DU17" t="n">
         <v>16146.57</v>
       </c>
-      <c r="DV17">
+      <c r="DV17" t="n">
         <v>16526.894</v>
       </c>
     </row>
-    <row r="18" spans="1:126">
-      <c r="A18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Import DutiesRM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>1454.67489015113</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>1583.23405449149</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>1664.28222269986</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>1753.71468534162</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>1648.91101906725</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>1822.18641359705</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>1851.53144015388</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>1799.82829850233</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>1620.96337435027</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>1815.19950326639</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>2003.84610256026</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>2167.33982194827</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>2058.34400902294</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>2376.94715449701</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>2399.30527072317</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>2473.36652746942</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>2262.36181308085</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>2473.36652746942</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>2515.28799511063</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>2283.32254633572</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>2455.20055902569</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>2425.85553246886</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>2627.07857171565</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="n">
         <v>2769.61155898024</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" t="n">
         <v>2470.57176378973</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" t="n">
         <v>2572.58066525297</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" t="n">
         <v>2819.91731879192</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" t="n">
         <v>2873.01784228331</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" t="n">
         <v>1630.74504949207</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" t="n">
         <v>1537.12044133077</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" t="n">
         <v>1436.50892170738</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" t="n">
         <v>1586.02881930262</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" t="n">
         <v>1675.46128081294</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" t="n">
         <v>2153.3660001555</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" t="n">
         <v>1844.54452982322</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" t="n">
         <v>1760.70159567228</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" t="n">
         <v>1658.69269420904</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" t="n">
         <v>1719.79051514171</v>
       </c>
-      <c r="AN18">
+      <c r="AN18" t="n">
         <v>1643.98395954007</v>
       </c>
-      <c r="AO18">
+      <c r="AO18" t="n">
         <v>1570.44028619519</v>
       </c>
-      <c r="AP18">
+      <c r="AP18" t="n">
         <v>1537.62849347209</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" t="n">
         <v>1688.11016354699</v>
       </c>
-      <c r="AR18">
+      <c r="AR18" t="n">
         <v>1499.15949510708</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" t="n">
         <v>1643.98395954007</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" t="n">
         <v>1722.05339739847</v>
       </c>
-      <c r="AU18">
+      <c r="AU18" t="n">
         <v>1958.52459323046</v>
       </c>
-      <c r="AV18">
+      <c r="AV18" t="n">
         <v>1914.39838922353</v>
       </c>
-      <c r="AW18">
+      <c r="AW18" t="n">
         <v>1865.74642070307</v>
       </c>
-      <c r="AX18">
+      <c r="AX18" t="n">
         <v>1746.94510222289</v>
       </c>
-      <c r="AY18">
+      <c r="AY18" t="n">
         <v>1734.49924981069</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ18" t="n">
         <v>1953.99882871693</v>
       </c>
-      <c r="BA18">
+      <c r="BA18" t="n">
         <v>1865.74642070307</v>
       </c>
-      <c r="BB18">
+      <c r="BB18" t="n">
         <v>1569.30884506681</v>
       </c>
-      <c r="BC18">
+      <c r="BC18" t="n">
         <v>1886.11236101397</v>
       </c>
-      <c r="BD18">
+      <c r="BD18" t="n">
         <v>1798.99139412849</v>
       </c>
-      <c r="BE18">
+      <c r="BE18" t="n">
         <v>1646.24684179682</v>
       </c>
-      <c r="BF18">
+      <c r="BF18" t="n">
         <v>1749.98730014841</v>
       </c>
-      <c r="BG18">
+      <c r="BG18" t="n">
         <v>1780.01489161781</v>
       </c>
-      <c r="BH18">
+      <c r="BH18" t="n">
         <v>1828.32324968393</v>
       </c>
-      <c r="BI18">
+      <c r="BI18" t="n">
         <v>1446.1646651511</v>
       </c>
-      <c r="BJ18">
+      <c r="BJ18" t="n">
         <v>1556.26464610071</v>
       </c>
-      <c r="BK18">
+      <c r="BK18" t="n">
         <v>1507.15805062128</v>
       </c>
-      <c r="BL18">
+      <c r="BL18" t="n">
         <v>1551.32038019913</v>
       </c>
-      <c r="BM18">
+      <c r="BM18" t="n">
         <v>1441.25311795398</v>
       </c>
-      <c r="BN18">
+      <c r="BN18" t="n">
         <v>1540.72375788782</v>
       </c>
-      <c r="BO18">
+      <c r="BO18" t="n">
         <v>1527.63185996498</v>
       </c>
-      <c r="BP18">
+      <c r="BP18" t="n">
         <v>1677.20792210593</v>
       </c>
-      <c r="BQ18">
+      <c r="BQ18" t="n">
         <v>1595.20593997473</v>
       </c>
-      <c r="BR18">
+      <c r="BR18" t="n">
         <v>1516.654587806</v>
       </c>
-      <c r="BS18">
+      <c r="BS18" t="n">
         <v>2102.99444555311</v>
       </c>
-      <c r="BT18">
+      <c r="BT18" t="n">
         <v>2208.71512958904</v>
       </c>
-      <c r="BU18">
+      <c r="BU18" t="n">
         <v>2205.57336376077</v>
       </c>
-      <c r="BV18">
+      <c r="BV18" t="n">
         <v>1696.94285984818</v>
       </c>
-      <c r="BW18">
+      <c r="BW18" t="n">
         <v>1764.2225327056</v>
       </c>
-      <c r="BX18">
+      <c r="BX18" t="n">
         <v>1866.74393896452</v>
       </c>
-      <c r="BY18">
+      <c r="BY18" t="n">
         <v>2135.8626303942</v>
       </c>
-      <c r="BZ18">
+      <c r="BZ18" t="n">
         <v>1687.7255784544</v>
       </c>
-      <c r="CA18">
+      <c r="CA18" t="n">
         <v>2109.39077029537</v>
       </c>
-      <c r="CB18">
+      <c r="CB18" t="n">
         <v>1988.00230597752</v>
       </c>
-      <c r="CC18">
+      <c r="CC18" t="n">
         <v>2383.0472205558</v>
       </c>
-      <c r="CD18">
+      <c r="CD18" t="n">
         <v>1975.22457289143</v>
       </c>
-      <c r="CE18">
+      <c r="CE18" t="n">
         <v>2422.44523090458</v>
       </c>
-      <c r="CF18">
+      <c r="CF18" t="n">
         <v>2457.58399689133</v>
       </c>
-      <c r="CG18">
+      <c r="CG18" t="n">
         <v>2358.55656547413</v>
       </c>
-      <c r="CH18">
+      <c r="CH18" t="n">
         <v>2526.79671777432</v>
       </c>
-      <c r="CI18">
+      <c r="CI18" t="n">
         <v>2651.37961536369</v>
       </c>
-      <c r="CJ18">
+      <c r="CJ18" t="n">
         <v>2744.01818023785</v>
       </c>
-      <c r="CK18">
+      <c r="CK18" t="n">
         <v>2730.17563606125</v>
       </c>
-      <c r="CL18">
+      <c r="CL18" t="n">
         <v>2663.09253735928</v>
       </c>
-      <c r="CM18">
+      <c r="CM18" t="n">
         <v>2861.14740019367</v>
       </c>
-      <c r="CN18">
+      <c r="CN18" t="n">
         <v>2914.38795471905</v>
       </c>
-      <c r="CO18">
+      <c r="CO18" t="n">
         <v>2823.87901202591</v>
       </c>
-      <c r="CP18">
+      <c r="CP18" t="n">
         <v>2916.51757690006</v>
       </c>
-      <c r="CQ18">
+      <c r="CQ18" t="n">
         <v>3370.12710145626</v>
       </c>
-      <c r="CR18">
+      <c r="CR18" t="n">
         <v>3083.69291810974</v>
       </c>
-      <c r="CS18">
+      <c r="CS18" t="n">
         <v>3021.93387486031</v>
       </c>
-      <c r="CT18">
+      <c r="CT18" t="n">
         <v>3153.672</v>
       </c>
-      <c r="CU18">
+      <c r="CU18" t="n">
         <v>3678.196</v>
       </c>
-      <c r="CV18">
+      <c r="CV18" t="n">
         <v>3660.286</v>
       </c>
-      <c r="CW18">
+      <c r="CW18" t="n">
         <v>4206.791</v>
       </c>
-      <c r="CX18">
+      <c r="CX18" t="n">
         <v>4005.92</v>
       </c>
-      <c r="CY18">
+      <c r="CY18" t="n">
         <v>3848.395</v>
       </c>
-      <c r="CZ18">
+      <c r="CZ18" t="n">
         <v>3865.32</v>
       </c>
-      <c r="DA18">
+      <c r="DA18" t="n">
         <v>4279.987</v>
       </c>
-      <c r="DB18">
+      <c r="DB18" t="n">
         <v>4347.73</v>
       </c>
-      <c r="DC18">
+      <c r="DC18" t="n">
         <v>4312.075</v>
       </c>
-      <c r="DD18">
+      <c r="DD18" t="n">
         <v>4508.808</v>
       </c>
-      <c r="DE18">
+      <c r="DE18" t="n">
         <v>4907.732</v>
       </c>
-      <c r="DF18">
+      <c r="DF18" t="n">
         <v>4995.366</v>
       </c>
-      <c r="DG18">
+      <c r="DG18" t="n">
         <v>4271.954</v>
       </c>
-      <c r="DH18">
+      <c r="DH18" t="n">
         <v>3074.168</v>
       </c>
-      <c r="DI18">
+      <c r="DI18" t="n">
         <v>4204.032</v>
       </c>
-      <c r="DJ18">
+      <c r="DJ18" t="n">
         <v>3975.778</v>
       </c>
-      <c r="DK18">
+      <c r="DK18" t="n">
         <v>4142.182</v>
       </c>
-      <c r="DL18">
+      <c r="DL18" t="n">
         <v>4105.56</v>
       </c>
-      <c r="DM18">
+      <c r="DM18" t="n">
         <v>3955.719</v>
       </c>
-      <c r="DN18">
+      <c r="DN18" t="n">
         <v>3386.398</v>
       </c>
-      <c r="DO18">
+      <c r="DO18" t="n">
         <v>3272.477</v>
       </c>
-      <c r="DP18">
+      <c r="DP18" t="n">
         <v>4189.115</v>
       </c>
-      <c r="DQ18">
+      <c r="DQ18" t="n">
         <v>4486.869</v>
       </c>
-      <c r="DR18">
+      <c r="DR18" t="n">
         <v>3967.116</v>
       </c>
-      <c r="DS18">
+      <c r="DS18" t="n">
         <v>4056.58</v>
       </c>
-      <c r="DT18">
+      <c r="DT18" t="n">
         <v>3295.653</v>
       </c>
-      <c r="DU18">
+      <c r="DU18" t="n">
         <v>4282.52</v>
       </c>
-      <c r="DV18">
+      <c r="DV18" t="n">
         <v>3895.408</v>
       </c>
     </row>
-    <row r="19" spans="1:126">
-      <c r="A19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GDP at Purchasers' ValueRM</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>74498.39245416909</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>75805.3333070254</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>84379.19697185241</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>86089.5487548574</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>81809.52465166411</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>83992.3645755355</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>90709.4327445602</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>92765.1705974514</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>88388.4383992533</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>94569.46740007021</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>100706.286982768</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>100175.773981639</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>95525.4960159613</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>101797.706944704</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>110274.862498229</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>111598.381884917</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>105840.105439768</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>114350.41804466</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>118931.61879962</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>121280.244029214</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>118246.372843224</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>124203.591678055</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>130702.375864472</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>133299.67905265</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" t="n">
         <v>127273.383023397</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" t="n">
         <v>134598.330663036</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" t="n">
         <v>140174.243284928</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" t="n">
         <v>141492.236504536</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" t="n">
         <v>125319.87943259</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" t="n">
         <v>126624.057210055</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" t="n">
         <v>125922.232736125</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" t="n">
         <v>125670.791685853</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" t="n">
         <v>124079.252698763</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" t="n">
         <v>132691.799582035</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" t="n">
         <v>137355.892989857</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" t="n">
         <v>140315.16079805</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" t="n">
         <v>138579.94120615</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" t="n">
         <v>143206.714965565</v>
       </c>
-      <c r="AN19">
+      <c r="AN19" t="n">
         <v>149624.550493769</v>
       </c>
-      <c r="AO19">
+      <c r="AO19" t="n">
         <v>149422.465271448</v>
       </c>
-      <c r="AP19">
+      <c r="AP19" t="n">
         <v>140646.425576328</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ19" t="n">
         <v>144438.782933904</v>
       </c>
-      <c r="AR19">
+      <c r="AR19" t="n">
         <v>149099.78080355</v>
       </c>
-      <c r="AS19">
+      <c r="AS19" t="n">
         <v>149655.51516493</v>
       </c>
-      <c r="AT19">
+      <c r="AT19" t="n">
         <v>144448.561251113</v>
       </c>
-      <c r="AU19">
+      <c r="AU19" t="n">
         <v>151249.380870006</v>
       </c>
-      <c r="AV19">
+      <c r="AV19" t="n">
         <v>159631.028437693</v>
       </c>
-      <c r="AW19">
+      <c r="AW19" t="n">
         <v>159986.307296289</v>
       </c>
-      <c r="AX19">
+      <c r="AX19" t="n">
         <v>153517.950462504</v>
       </c>
-      <c r="AY19">
+      <c r="AY19" t="n">
         <v>160106.906541867</v>
       </c>
-      <c r="AZ19">
+      <c r="AZ19" t="n">
         <v>166984.322978896</v>
       </c>
-      <c r="BA19">
+      <c r="BA19" t="n">
         <v>170325.248025321</v>
       </c>
-      <c r="BB19">
+      <c r="BB19" t="n">
         <v>166057.012563572</v>
       </c>
-      <c r="BC19">
+      <c r="BC19" t="n">
         <v>172830.126950372</v>
       </c>
-      <c r="BD19">
+      <c r="BD19" t="n">
         <v>177613.353785131</v>
       </c>
-      <c r="BE19">
+      <c r="BE19" t="n">
         <v>178586.296347431</v>
       </c>
-      <c r="BF19">
+      <c r="BF19" t="n">
         <v>175351.589195138</v>
       </c>
-      <c r="BG19">
+      <c r="BG19" t="n">
         <v>179190.753571331</v>
       </c>
-      <c r="BH19">
+      <c r="BH19" t="n">
         <v>186556.677750511</v>
       </c>
-      <c r="BI19">
+      <c r="BI19" t="n">
         <v>188573.158671027</v>
       </c>
-      <c r="BJ19">
+      <c r="BJ19" t="n">
         <v>185226.122177315</v>
       </c>
-      <c r="BK19">
+      <c r="BK19" t="n">
         <v>189296.064817465</v>
       </c>
-      <c r="BL19">
+      <c r="BL19" t="n">
         <v>197217.571900893</v>
       </c>
-      <c r="BM19">
+      <c r="BM19" t="n">
         <v>198683.285212681</v>
       </c>
-      <c r="BN19">
+      <c r="BN19" t="n">
         <v>194784.44817534</v>
       </c>
-      <c r="BO19">
+      <c r="BO19" t="n">
         <v>200537.153458175</v>
       </c>
-      <c r="BP19">
+      <c r="BP19" t="n">
         <v>209915.27940819</v>
       </c>
-      <c r="BQ19">
+      <c r="BQ19" t="n">
         <v>213714.202786067</v>
       </c>
-      <c r="BR19">
+      <c r="BR19" t="n">
         <v>209596.764872126</v>
       </c>
-      <c r="BS19">
+      <c r="BS19" t="n">
         <v>213817.632025375</v>
       </c>
-      <c r="BT19">
+      <c r="BT19" t="n">
         <v>220692.866151361</v>
       </c>
-      <c r="BU19">
+      <c r="BU19" t="n">
         <v>214413.753662032</v>
       </c>
-      <c r="BV19">
+      <c r="BV19" t="n">
         <v>197532.309975322</v>
       </c>
-      <c r="BW19">
+      <c r="BW19" t="n">
         <v>205813.272913725</v>
       </c>
-      <c r="BX19">
+      <c r="BX19" t="n">
         <v>218207.199127094</v>
       </c>
-      <c r="BY19">
+      <c r="BY19" t="n">
         <v>223973.938758052</v>
       </c>
-      <c r="BZ19">
+      <c r="BZ19" t="n">
         <v>217700.692479751</v>
       </c>
-      <c r="CA19">
+      <c r="CA19" t="n">
         <v>224353.622810427</v>
       </c>
-      <c r="CB19">
+      <c r="CB19" t="n">
         <v>230647.084752497</v>
       </c>
-      <c r="CC19">
+      <c r="CC19" t="n">
         <v>235852.187019523</v>
       </c>
-      <c r="CD19">
+      <c r="CD19" t="n">
         <v>228596.455852568</v>
       </c>
-      <c r="CE19">
+      <c r="CE19" t="n">
         <v>234745.024382614</v>
       </c>
-      <c r="CF19">
+      <c r="CF19" t="n">
         <v>244490.488911889</v>
       </c>
-      <c r="CG19">
+      <c r="CG19" t="n">
         <v>248818.488310715</v>
       </c>
-      <c r="CH19">
+      <c r="CH19" t="n">
         <v>240210.049946018</v>
       </c>
-      <c r="CI19">
+      <c r="CI19" t="n">
         <v>247064.282574314</v>
       </c>
-      <c r="CJ19">
+      <c r="CJ19" t="n">
         <v>256736.747369287</v>
       </c>
-      <c r="CK19">
+      <c r="CK19" t="n">
         <v>265001.202137502</v>
       </c>
-      <c r="CL19">
+      <c r="CL19" t="n">
         <v>250605.875744526</v>
       </c>
-      <c r="CM19">
+      <c r="CM19" t="n">
         <v>258320.620392318</v>
       </c>
-      <c r="CN19">
+      <c r="CN19" t="n">
         <v>269322.565196846</v>
       </c>
-      <c r="CO19">
+      <c r="CO19" t="n">
         <v>278123.45740652</v>
       </c>
-      <c r="CP19">
+      <c r="CP19" t="n">
         <v>266306.34890229</v>
       </c>
-      <c r="CQ19">
+      <c r="CQ19" t="n">
         <v>275182.452959427</v>
       </c>
-      <c r="CR19">
+      <c r="CR19" t="n">
         <v>284483.28274341</v>
       </c>
-      <c r="CS19">
+      <c r="CS19" t="n">
         <v>293852.688035373</v>
       </c>
-      <c r="CT19">
+      <c r="CT19" t="n">
         <v>282255.901</v>
       </c>
-      <c r="CU19">
+      <c r="CU19" t="n">
         <v>288975.211</v>
       </c>
-      <c r="CV19">
+      <c r="CV19" t="n">
         <v>297965</v>
       </c>
-      <c r="CW19">
+      <c r="CW19" t="n">
         <v>307745.075</v>
       </c>
-      <c r="CX19">
+      <c r="CX19" t="n">
         <v>294328.594</v>
       </c>
-      <c r="CY19">
+      <c r="CY19" t="n">
         <v>301015.171</v>
       </c>
-      <c r="CZ19">
+      <c r="CZ19" t="n">
         <v>311510.316</v>
       </c>
-      <c r="DA19">
+      <c r="DA19" t="n">
         <v>322458.416</v>
       </c>
-      <c r="DB19">
+      <c r="DB19" t="n">
         <v>310744.329</v>
       </c>
-      <c r="DC19">
+      <c r="DC19" t="n">
         <v>318231.126</v>
       </c>
-      <c r="DD19">
+      <c r="DD19" t="n">
         <v>330664.351</v>
       </c>
-      <c r="DE19">
+      <c r="DE19" t="n">
         <v>341129.214</v>
       </c>
-      <c r="DF19">
+      <c r="DF19" t="n">
         <v>327096.255</v>
       </c>
-      <c r="DG19">
+      <c r="DG19" t="n">
         <v>333437.64</v>
       </c>
-      <c r="DH19">
+      <c r="DH19" t="n">
         <v>345685.044</v>
       </c>
-      <c r="DI19">
+      <c r="DI19" t="n">
         <v>357547.456</v>
       </c>
-      <c r="DJ19">
+      <c r="DJ19" t="n">
         <v>342373.168</v>
       </c>
-      <c r="DK19">
+      <c r="DK19" t="n">
         <v>349909.766</v>
       </c>
-      <c r="DL19">
+      <c r="DL19" t="n">
         <v>361117.29</v>
       </c>
-      <c r="DM19">
+      <c r="DM19" t="n">
         <v>370551.738</v>
       </c>
-      <c r="DN19">
+      <c r="DN19" t="n">
         <v>344787.688</v>
       </c>
-      <c r="DO19">
+      <c r="DO19" t="n">
         <v>290090.236</v>
       </c>
-      <c r="DP19">
+      <c r="DP19" t="n">
         <v>351926.495</v>
       </c>
-      <c r="DQ19">
+      <c r="DQ19" t="n">
         <v>358339.843</v>
       </c>
-      <c r="DR19">
+      <c r="DR19" t="n">
         <v>343161.915</v>
       </c>
-      <c r="DS19">
+      <c r="DS19" t="n">
         <v>336107.813</v>
       </c>
-      <c r="DT19">
+      <c r="DT19" t="n">
         <v>336160.504</v>
       </c>
-      <c r="DU19">
+      <c r="DU19" t="n">
         <v>371308.077</v>
       </c>
-      <c r="DV19">
+      <c r="DV19" t="n">
         <v>360238.767</v>
       </c>
     </row>
-    <row r="20" spans="1:126">
-      <c r="A20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL20">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ServicesRM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
         <v>62032.8015359821</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" t="n">
         <v>62630.4843364972</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" t="n">
         <v>64484.4615672212</v>
       </c>
-      <c r="AO20">
+      <c r="AO20" t="n">
         <v>65663.86961775221</v>
       </c>
-      <c r="AP20">
+      <c r="AP20" t="n">
         <v>63126.6190883812</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ20" t="n">
         <v>64929.8222947894</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" t="n">
         <v>68138.7406315353</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" t="n">
         <v>69020.7579682178</v>
       </c>
-      <c r="AT20">
+      <c r="AT20" t="n">
         <v>66542.98558161651</v>
       </c>
-      <c r="AU20">
+      <c r="AU20" t="n">
         <v>69428.4008491516</v>
       </c>
-      <c r="AV20">
+      <c r="AV20" t="n">
         <v>71212.74513224261</v>
       </c>
-      <c r="AW20">
+      <c r="AW20" t="n">
         <v>73523.6885818071</v>
       </c>
-      <c r="AX20">
+      <c r="AX20" t="n">
         <v>69799.7765698599</v>
       </c>
-      <c r="AY20">
+      <c r="AY20" t="n">
         <v>70813.806369763</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ20" t="n">
         <v>74414.41003694361</v>
       </c>
-      <c r="BA20">
+      <c r="BA20" t="n">
         <v>77383.96511620159</v>
       </c>
-      <c r="BB20">
+      <c r="BB20" t="n">
         <v>74678.4349633847</v>
       </c>
-      <c r="BC20">
+      <c r="BC20" t="n">
         <v>76983.57566731291</v>
       </c>
-      <c r="BD20">
+      <c r="BD20" t="n">
         <v>78525.6553200982</v>
       </c>
-      <c r="BE20">
+      <c r="BE20" t="n">
         <v>81025.18800283469</v>
       </c>
-      <c r="BF20">
+      <c r="BF20" t="n">
         <v>79902.35337452291</v>
       </c>
-      <c r="BG20">
+      <c r="BG20" t="n">
         <v>82244.59244194761</v>
       </c>
-      <c r="BH20">
+      <c r="BH20" t="n">
         <v>85097.97433005059</v>
       </c>
-      <c r="BI20">
+      <c r="BI20" t="n">
         <v>88311.0862058885</v>
       </c>
-      <c r="BJ20">
+      <c r="BJ20" t="n">
         <v>85576.1788381489</v>
       </c>
-      <c r="BK20">
+      <c r="BK20" t="n">
         <v>88082.7808342316</v>
       </c>
-      <c r="BL20">
+      <c r="BL20" t="n">
         <v>91000.8339355965</v>
       </c>
-      <c r="BM20">
+      <c r="BM20" t="n">
         <v>94952.5420095204</v>
       </c>
-      <c r="BN20">
+      <c r="BN20" t="n">
         <v>93440.77470129701</v>
       </c>
-      <c r="BO20">
+      <c r="BO20" t="n">
         <v>96707.7788406023</v>
       </c>
-      <c r="BP20">
+      <c r="BP20" t="n">
         <v>100875.725573811</v>
       </c>
-      <c r="BQ20">
+      <c r="BQ20" t="n">
         <v>104711.795080048</v>
       </c>
-      <c r="BR20">
+      <c r="BR20" t="n">
         <v>102953.04713794</v>
       </c>
-      <c r="BS20">
+      <c r="BS20" t="n">
         <v>105873.614486972</v>
       </c>
-      <c r="BT20">
+      <c r="BT20" t="n">
         <v>109499.447871952</v>
       </c>
-      <c r="BU20">
+      <c r="BU20" t="n">
         <v>111422.298057768</v>
       </c>
-      <c r="BV20">
+      <c r="BV20" t="n">
         <v>103244.09936618</v>
       </c>
-      <c r="BW20">
+      <c r="BW20" t="n">
         <v>107464.902866147</v>
       </c>
-      <c r="BX20">
+      <c r="BX20" t="n">
         <v>113493.302738403</v>
       </c>
-      <c r="BY20">
+      <c r="BY20" t="n">
         <v>117835.49227213</v>
       </c>
-      <c r="BZ20">
+      <c r="BZ20" t="n">
         <v>112756.546336937</v>
       </c>
-      <c r="CA20">
+      <c r="CA20" t="n">
         <v>116510.165349746</v>
       </c>
-      <c r="CB20">
+      <c r="CB20" t="n">
         <v>119954.277408144</v>
       </c>
-      <c r="CC20">
+      <c r="CC20" t="n">
         <v>125638.361330039</v>
       </c>
-      <c r="CD20">
+      <c r="CD20" t="n">
         <v>120824.059725286</v>
       </c>
-      <c r="CE20">
+      <c r="CE20" t="n">
         <v>124689.507893156</v>
       </c>
-      <c r="CF20">
+      <c r="CF20" t="n">
         <v>128624.990481368</v>
       </c>
-      <c r="CG20">
+      <c r="CG20" t="n">
         <v>134011.992910525</v>
       </c>
-      <c r="CH20">
+      <c r="CH20" t="n">
         <v>127894.147417484</v>
       </c>
-      <c r="CI20">
+      <c r="CI20" t="n">
         <v>133214.504188574</v>
       </c>
-      <c r="CJ20">
+      <c r="CJ20" t="n">
         <v>137723.817188614</v>
       </c>
-      <c r="CK20">
+      <c r="CK20" t="n">
         <v>142577.654353237</v>
       </c>
-      <c r="CL20">
+      <c r="CL20" t="n">
         <v>135641.987564598</v>
       </c>
-      <c r="CM20">
+      <c r="CM20" t="n">
         <v>140136.615928115</v>
       </c>
-      <c r="CN20">
+      <c r="CN20" t="n">
         <v>146002.563425412</v>
       </c>
-      <c r="CO20">
+      <c r="CO20" t="n">
         <v>151813.161138892</v>
       </c>
-      <c r="CP20">
+      <c r="CP20" t="n">
         <v>144900.086098749</v>
       </c>
-      <c r="CQ20">
+      <c r="CQ20" t="n">
         <v>149155.241928196</v>
       </c>
-      <c r="CR20">
+      <c r="CR20" t="n">
         <v>155606.315711571</v>
       </c>
-      <c r="CS20">
+      <c r="CS20" t="n">
         <v>161911.672717139</v>
       </c>
-      <c r="CT20">
+      <c r="CT20" t="n">
         <v>154468.805</v>
       </c>
-      <c r="CU20">
+      <c r="CU20" t="n">
         <v>156945.156</v>
       </c>
-      <c r="CV20">
+      <c r="CV20" t="n">
         <v>162176.915</v>
       </c>
-      <c r="CW20">
+      <c r="CW20" t="n">
         <v>170291.693</v>
       </c>
-      <c r="CX20">
+      <c r="CX20" t="n">
         <v>162558.111</v>
       </c>
-      <c r="CY20">
+      <c r="CY20" t="n">
         <v>165992.9</v>
       </c>
-      <c r="CZ20">
+      <c r="CZ20" t="n">
         <v>172205.705</v>
       </c>
-      <c r="DA20">
+      <c r="DA20" t="n">
         <v>179804.602</v>
       </c>
-      <c r="DB20">
+      <c r="DB20" t="n">
         <v>172089.55</v>
       </c>
-      <c r="DC20">
+      <c r="DC20" t="n">
         <v>176593.098</v>
       </c>
-      <c r="DD20">
+      <c r="DD20" t="n">
         <v>183516.631</v>
       </c>
-      <c r="DE20">
+      <c r="DE20" t="n">
         <v>191161.451</v>
       </c>
-      <c r="DF20">
+      <c r="DF20" t="n">
         <v>183367.054</v>
       </c>
-      <c r="DG20">
+      <c r="DG20" t="n">
         <v>188289.625</v>
       </c>
-      <c r="DH20">
+      <c r="DH20" t="n">
         <v>196947.079</v>
       </c>
-      <c r="DI20">
+      <c r="DI20" t="n">
         <v>204386.104</v>
       </c>
-      <c r="DJ20">
+      <c r="DJ20" t="n">
         <v>195143.956</v>
       </c>
-      <c r="DK20">
+      <c r="DK20" t="n">
         <v>199852.376</v>
       </c>
-      <c r="DL20">
+      <c r="DL20" t="n">
         <v>208473.907</v>
       </c>
-      <c r="DM20">
+      <c r="DM20" t="n">
         <v>217106.241</v>
       </c>
-      <c r="DN20">
+      <c r="DN20" t="n">
         <v>201370.131</v>
       </c>
-      <c r="DO20">
+      <c r="DO20" t="n">
         <v>167515.435</v>
       </c>
-      <c r="DP20">
+      <c r="DP20" t="n">
         <v>200390.394</v>
       </c>
-      <c r="DQ20">
+      <c r="DQ20" t="n">
         <v>207085.329</v>
       </c>
-      <c r="DR20">
+      <c r="DR20" t="n">
         <v>196764.759</v>
       </c>
-      <c r="DS20">
+      <c r="DS20" t="n">
         <v>190043.951</v>
       </c>
-      <c r="DT20">
+      <c r="DT20" t="n">
         <v>190474.218</v>
       </c>
-      <c r="DU20">
+      <c r="DU20" t="n">
         <v>213784.759</v>
       </c>
-      <c r="DV20">
+      <c r="DV20" t="n">
         <v>209560.209</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>